--- a/rawdata/supplementary_material.xlsx
+++ b/rawdata/supplementary_material.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108DBF3E-71E9-40CF-B058-B329BD5D6822}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0339C9F-2CA8-4B12-85DE-2E01F6419C72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="805" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="805" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scoring system" sheetId="14" r:id="rId1"/>
@@ -408,7 +408,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10626" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10628" uniqueCount="966">
   <si>
     <t>Sustainable Development Goals and targets</t>
   </si>
@@ -4694,7 +4694,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5106,9 +5106,6 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5561,7 +5558,7 @@
       <c r="B5" s="46" t="s">
         <v>953</v>
       </c>
-      <c r="C5" s="149" t="s">
+      <c r="C5" s="148" t="s">
         <v>957</v>
       </c>
     </row>
@@ -5572,18 +5569,18 @@
       <c r="B6" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="C6" s="150" t="s">
+      <c r="C6" s="149" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="153"/>
+      <c r="A9" s="152"/>
       <c r="B9" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="154"/>
+      <c r="A10" s="153"/>
       <c r="B10" t="s">
         <v>965</v>
       </c>
@@ -5601,8 +5598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1BF996-2768-4711-9B02-5E1F582BFBD8}">
   <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F123" sqref="F123"/>
+    <sheetView topLeftCell="A139" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134:XFD134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5629,7 +5626,7 @@
       <c r="E1" s="113" t="s">
         <v>729</v>
       </c>
-      <c r="F1" s="148" t="s">
+      <c r="F1" s="147" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -5637,15 +5634,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
     </row>
     <row r="3" spans="1:7" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -5663,10 +5660,10 @@
       <c r="E3" s="130" t="s">
         <v>380</v>
       </c>
-      <c r="F3" s="164" t="s">
+      <c r="F3" s="163" t="s">
         <v>810</v>
       </c>
-      <c r="G3" s="164" t="s">
+      <c r="G3" s="163" t="s">
         <v>812</v>
       </c>
     </row>
@@ -5686,8 +5683,8 @@
       <c r="E4" s="130" t="s">
         <v>380</v>
       </c>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
     </row>
     <row r="5" spans="1:7" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -5805,15 +5802,15 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="156" t="s">
+      <c r="A10" s="155" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
     </row>
     <row r="11" spans="1:7" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -5831,10 +5828,10 @@
       <c r="E11" s="130" t="s">
         <v>380</v>
       </c>
-      <c r="F11" s="164" t="s">
+      <c r="F11" s="163" t="s">
         <v>779</v>
       </c>
-      <c r="G11" s="164" t="s">
+      <c r="G11" s="163" t="s">
         <v>780</v>
       </c>
     </row>
@@ -5854,8 +5851,8 @@
       <c r="E12" s="130" t="s">
         <v>380</v>
       </c>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="163"/>
     </row>
     <row r="13" spans="1:7" ht="322.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -5873,8 +5870,8 @@
       <c r="E13" s="130" t="s">
         <v>380</v>
       </c>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="163"/>
     </row>
     <row r="14" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -5992,15 +5989,15 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="156" t="s">
+      <c r="A19" s="155" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="156"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
     </row>
     <row r="20" spans="1:7" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -6018,10 +6015,10 @@
       <c r="E20" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F20" s="164" t="s">
+      <c r="F20" s="163" t="s">
         <v>781</v>
       </c>
-      <c r="G20" s="164" t="s">
+      <c r="G20" s="163" t="s">
         <v>844</v>
       </c>
     </row>
@@ -6041,8 +6038,8 @@
       <c r="E21" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="163"/>
     </row>
     <row r="22" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -6298,15 +6295,15 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="156" t="s">
+      <c r="A33" s="155" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="156"/>
-      <c r="C33" s="156"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="155"/>
     </row>
     <row r="34" spans="1:7" ht="180.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
@@ -6462,7 +6459,7 @@
       <c r="E40" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F40" s="152" t="s">
+      <c r="F40" s="151" t="s">
         <v>450</v>
       </c>
       <c r="G40" s="116" t="s">
@@ -6539,15 +6536,15 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="156" t="s">
+      <c r="A44" s="155" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="156"/>
-      <c r="C44" s="156"/>
-      <c r="D44" s="156"/>
-      <c r="E44" s="156"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="156"/>
+      <c r="B44" s="155"/>
+      <c r="C44" s="155"/>
+      <c r="D44" s="155"/>
+      <c r="E44" s="155"/>
+      <c r="F44" s="155"/>
+      <c r="G44" s="155"/>
     </row>
     <row r="45" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
@@ -6757,15 +6754,15 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="156" t="s">
+      <c r="A54" s="155" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="156"/>
-      <c r="C54" s="156"/>
-      <c r="D54" s="156"/>
-      <c r="E54" s="156"/>
-      <c r="F54" s="156"/>
-      <c r="G54" s="156"/>
+      <c r="B54" s="155"/>
+      <c r="C54" s="155"/>
+      <c r="D54" s="155"/>
+      <c r="E54" s="155"/>
+      <c r="F54" s="155"/>
+      <c r="G54" s="155"/>
     </row>
     <row r="55" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
@@ -6952,15 +6949,15 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="156" t="s">
+      <c r="A63" s="155" t="s">
         <v>160</v>
       </c>
-      <c r="B63" s="156"/>
-      <c r="C63" s="156"/>
-      <c r="D63" s="156"/>
-      <c r="E63" s="156"/>
-      <c r="F63" s="156"/>
-      <c r="G63" s="156"/>
+      <c r="B63" s="155"/>
+      <c r="C63" s="155"/>
+      <c r="D63" s="155"/>
+      <c r="E63" s="155"/>
+      <c r="F63" s="155"/>
+      <c r="G63" s="155"/>
     </row>
     <row r="64" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
@@ -7078,15 +7075,15 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="156" t="s">
+      <c r="A69" s="155" t="s">
         <v>161</v>
       </c>
-      <c r="B69" s="156"/>
-      <c r="C69" s="156"/>
-      <c r="D69" s="156"/>
-      <c r="E69" s="156"/>
-      <c r="F69" s="156"/>
-      <c r="G69" s="156"/>
+      <c r="B69" s="155"/>
+      <c r="C69" s="155"/>
+      <c r="D69" s="155"/>
+      <c r="E69" s="155"/>
+      <c r="F69" s="155"/>
+      <c r="G69" s="155"/>
     </row>
     <row r="70" spans="1:7" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
@@ -7104,10 +7101,10 @@
       <c r="E70" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F70" s="164" t="s">
+      <c r="F70" s="163" t="s">
         <v>452</v>
       </c>
-      <c r="G70" s="164" t="s">
+      <c r="G70" s="163" t="s">
         <v>453</v>
       </c>
     </row>
@@ -7127,8 +7124,8 @@
       <c r="E71" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F71" s="164"/>
-      <c r="G71" s="164"/>
+      <c r="F71" s="163"/>
+      <c r="G71" s="163"/>
     </row>
     <row r="72" spans="1:7" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
@@ -7361,15 +7358,15 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="156" t="s">
+      <c r="A82" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="156"/>
-      <c r="C82" s="156"/>
-      <c r="D82" s="156"/>
-      <c r="E82" s="156"/>
-      <c r="F82" s="156"/>
-      <c r="G82" s="156"/>
+      <c r="B82" s="155"/>
+      <c r="C82" s="155"/>
+      <c r="D82" s="155"/>
+      <c r="E82" s="155"/>
+      <c r="F82" s="155"/>
+      <c r="G82" s="155"/>
     </row>
     <row r="83" spans="1:7" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
@@ -7456,10 +7453,10 @@
       <c r="E86" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F86" s="161" t="s">
+      <c r="F86" s="160" t="s">
         <v>456</v>
       </c>
-      <c r="G86" s="161" t="s">
+      <c r="G86" s="160" t="s">
         <v>457</v>
       </c>
     </row>
@@ -7479,8 +7476,8 @@
       <c r="E87" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F87" s="161"/>
-      <c r="G87" s="161"/>
+      <c r="F87" s="160"/>
+      <c r="G87" s="160"/>
     </row>
     <row r="88" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
@@ -7498,8 +7495,8 @@
       <c r="E88" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F88" s="161"/>
-      <c r="G88" s="161"/>
+      <c r="F88" s="160"/>
+      <c r="G88" s="160"/>
     </row>
     <row r="89" spans="1:7" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
@@ -7548,15 +7545,15 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="156" t="s">
+      <c r="A91" s="155" t="s">
         <v>163</v>
       </c>
-      <c r="B91" s="156"/>
-      <c r="C91" s="156"/>
-      <c r="D91" s="156"/>
-      <c r="E91" s="156"/>
-      <c r="F91" s="156"/>
-      <c r="G91" s="156"/>
+      <c r="B91" s="155"/>
+      <c r="C91" s="155"/>
+      <c r="D91" s="155"/>
+      <c r="E91" s="155"/>
+      <c r="F91" s="155"/>
+      <c r="G91" s="155"/>
     </row>
     <row r="92" spans="1:7" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
@@ -7789,15 +7786,15 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="156" t="s">
+      <c r="A102" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="B102" s="156"/>
-      <c r="C102" s="156"/>
-      <c r="D102" s="156"/>
-      <c r="E102" s="156"/>
-      <c r="F102" s="156"/>
-      <c r="G102" s="156"/>
+      <c r="B102" s="155"/>
+      <c r="C102" s="155"/>
+      <c r="D102" s="155"/>
+      <c r="E102" s="155"/>
+      <c r="F102" s="155"/>
+      <c r="G102" s="155"/>
     </row>
     <row r="103" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
@@ -8030,15 +8027,15 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="156" t="s">
+      <c r="A113" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="B113" s="156"/>
-      <c r="C113" s="156"/>
-      <c r="D113" s="156"/>
-      <c r="E113" s="156"/>
-      <c r="F113" s="156"/>
-      <c r="G113" s="156"/>
+      <c r="B113" s="155"/>
+      <c r="C113" s="155"/>
+      <c r="D113" s="155"/>
+      <c r="E113" s="155"/>
+      <c r="F113" s="155"/>
+      <c r="G113" s="155"/>
     </row>
     <row r="114" spans="1:7" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
@@ -8056,10 +8053,10 @@
       <c r="E114" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F114" s="164" t="s">
+      <c r="F114" s="163" t="s">
         <v>459</v>
       </c>
-      <c r="G114" s="164" t="s">
+      <c r="G114" s="163" t="s">
         <v>416</v>
       </c>
     </row>
@@ -8079,8 +8076,8 @@
       <c r="E115" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F115" s="164"/>
-      <c r="G115" s="164"/>
+      <c r="F115" s="163"/>
+      <c r="G115" s="163"/>
     </row>
     <row r="116" spans="1:7" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
@@ -8288,15 +8285,15 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="156" t="s">
+      <c r="A125" s="155" t="s">
         <v>166</v>
       </c>
-      <c r="B125" s="156"/>
-      <c r="C125" s="156"/>
-      <c r="D125" s="156"/>
-      <c r="E125" s="156"/>
-      <c r="F125" s="156"/>
-      <c r="G125" s="156"/>
+      <c r="B125" s="155"/>
+      <c r="C125" s="155"/>
+      <c r="D125" s="155"/>
+      <c r="E125" s="155"/>
+      <c r="F125" s="155"/>
+      <c r="G125" s="155"/>
     </row>
     <row r="126" spans="1:7" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
@@ -8314,10 +8311,10 @@
       <c r="E126" s="133" t="s">
         <v>379</v>
       </c>
-      <c r="F126" s="174" t="s">
+      <c r="F126" s="173" t="s">
         <v>746</v>
       </c>
-      <c r="G126" s="174" t="s">
+      <c r="G126" s="173" t="s">
         <v>745</v>
       </c>
     </row>
@@ -8337,8 +8334,8 @@
       <c r="E127" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F127" s="175"/>
-      <c r="G127" s="175"/>
+      <c r="F127" s="174"/>
+      <c r="G127" s="174"/>
     </row>
     <row r="128" spans="1:7" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
@@ -8356,7 +8353,7 @@
       <c r="E128" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F128" s="152" t="s">
+      <c r="F128" s="151" t="s">
         <v>544</v>
       </c>
       <c r="G128" s="116"/>
@@ -8408,15 +8405,15 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="156" t="s">
+      <c r="A131" s="155" t="s">
         <v>167</v>
       </c>
-      <c r="B131" s="156"/>
-      <c r="C131" s="156"/>
-      <c r="D131" s="156"/>
-      <c r="E131" s="156"/>
-      <c r="F131" s="156"/>
-      <c r="G131" s="156"/>
+      <c r="B131" s="155"/>
+      <c r="C131" s="155"/>
+      <c r="D131" s="155"/>
+      <c r="E131" s="155"/>
+      <c r="F131" s="155"/>
+      <c r="G131" s="155"/>
     </row>
     <row r="132" spans="1:7" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
@@ -8645,15 +8642,15 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="156" t="s">
+      <c r="A142" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="B142" s="156"/>
-      <c r="C142" s="156"/>
-      <c r="D142" s="156"/>
-      <c r="E142" s="156"/>
-      <c r="F142" s="156"/>
-      <c r="G142" s="156"/>
+      <c r="B142" s="155"/>
+      <c r="C142" s="155"/>
+      <c r="D142" s="155"/>
+      <c r="E142" s="155"/>
+      <c r="F142" s="155"/>
+      <c r="G142" s="155"/>
     </row>
     <row r="143" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
@@ -8932,15 +8929,15 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="156" t="s">
+      <c r="A155" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="B155" s="156"/>
-      <c r="C155" s="156"/>
-      <c r="D155" s="156"/>
-      <c r="E155" s="156"/>
-      <c r="F155" s="156"/>
-      <c r="G155" s="156"/>
+      <c r="B155" s="155"/>
+      <c r="C155" s="155"/>
+      <c r="D155" s="155"/>
+      <c r="E155" s="155"/>
+      <c r="F155" s="155"/>
+      <c r="G155" s="155"/>
     </row>
     <row r="156" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
@@ -8958,10 +8955,10 @@
       <c r="E156" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F156" s="164" t="s">
+      <c r="F156" s="163" t="s">
         <v>373</v>
       </c>
-      <c r="G156" s="164" t="s">
+      <c r="G156" s="163" t="s">
         <v>449</v>
       </c>
     </row>
@@ -8981,8 +8978,8 @@
       <c r="E157" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F157" s="164"/>
-      <c r="G157" s="164"/>
+      <c r="F157" s="163"/>
+      <c r="G157" s="163"/>
     </row>
     <row r="158" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
@@ -9293,15 +9290,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
     </row>
     <row r="3" spans="1:7" ht="126.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -9465,15 +9462,15 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="156" t="s">
+      <c r="A10" s="155" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
     </row>
     <row r="11" spans="1:7" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -9491,10 +9488,10 @@
       <c r="E11" s="130" t="s">
         <v>380</v>
       </c>
-      <c r="F11" s="161" t="s">
+      <c r="F11" s="160" t="s">
         <v>681</v>
       </c>
-      <c r="G11" s="162" t="s">
+      <c r="G11" s="161" t="s">
         <v>677</v>
       </c>
     </row>
@@ -9514,8 +9511,8 @@
       <c r="E12" s="130" t="s">
         <v>380</v>
       </c>
-      <c r="F12" s="161"/>
-      <c r="G12" s="163"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="162"/>
     </row>
     <row r="13" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -9656,15 +9653,15 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="156" t="s">
+      <c r="A19" s="155" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="156"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
     </row>
     <row r="20" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -9966,15 +9963,15 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="156" t="s">
+      <c r="A33" s="155" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="156"/>
-      <c r="C33" s="156"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="155"/>
     </row>
     <row r="34" spans="1:7" ht="220.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
@@ -10207,15 +10204,15 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="156" t="s">
+      <c r="A44" s="155" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="156"/>
-      <c r="C44" s="156"/>
-      <c r="D44" s="156"/>
-      <c r="E44" s="156"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="156"/>
+      <c r="B44" s="155"/>
+      <c r="C44" s="155"/>
+      <c r="D44" s="155"/>
+      <c r="E44" s="155"/>
+      <c r="F44" s="155"/>
+      <c r="G44" s="155"/>
     </row>
     <row r="45" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
@@ -10425,15 +10422,15 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="156" t="s">
+      <c r="A54" s="155" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="156"/>
-      <c r="C54" s="156"/>
-      <c r="D54" s="156"/>
-      <c r="E54" s="156"/>
-      <c r="F54" s="156"/>
-      <c r="G54" s="156"/>
+      <c r="B54" s="155"/>
+      <c r="C54" s="155"/>
+      <c r="D54" s="155"/>
+      <c r="E54" s="155"/>
+      <c r="F54" s="155"/>
+      <c r="G54" s="155"/>
     </row>
     <row r="55" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
@@ -10620,15 +10617,15 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="156" t="s">
+      <c r="A63" s="155" t="s">
         <v>160</v>
       </c>
-      <c r="B63" s="156"/>
-      <c r="C63" s="156"/>
-      <c r="D63" s="156"/>
-      <c r="E63" s="156"/>
-      <c r="F63" s="156"/>
-      <c r="G63" s="156"/>
+      <c r="B63" s="155"/>
+      <c r="C63" s="155"/>
+      <c r="D63" s="155"/>
+      <c r="E63" s="155"/>
+      <c r="F63" s="155"/>
+      <c r="G63" s="155"/>
     </row>
     <row r="64" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
@@ -10746,15 +10743,15 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="156" t="s">
+      <c r="A69" s="155" t="s">
         <v>161</v>
       </c>
-      <c r="B69" s="156"/>
-      <c r="C69" s="156"/>
-      <c r="D69" s="156"/>
-      <c r="E69" s="156"/>
-      <c r="F69" s="156"/>
-      <c r="G69" s="156"/>
+      <c r="B69" s="155"/>
+      <c r="C69" s="155"/>
+      <c r="D69" s="155"/>
+      <c r="E69" s="155"/>
+      <c r="F69" s="155"/>
+      <c r="G69" s="155"/>
     </row>
     <row r="70" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
@@ -11033,15 +11030,15 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="156" t="s">
+      <c r="A82" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="156"/>
-      <c r="C82" s="156"/>
-      <c r="D82" s="156"/>
-      <c r="E82" s="156"/>
-      <c r="F82" s="156"/>
-      <c r="G82" s="156"/>
+      <c r="B82" s="155"/>
+      <c r="C82" s="155"/>
+      <c r="D82" s="155"/>
+      <c r="E82" s="155"/>
+      <c r="F82" s="155"/>
+      <c r="G82" s="155"/>
     </row>
     <row r="83" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
@@ -11151,7 +11148,7 @@
       <c r="E87" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="F87" s="152" t="s">
+      <c r="F87" s="151" t="s">
         <v>894</v>
       </c>
       <c r="G87" s="115" t="s">
@@ -11228,15 +11225,15 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="156" t="s">
+      <c r="A91" s="155" t="s">
         <v>163</v>
       </c>
-      <c r="B91" s="156"/>
-      <c r="C91" s="156"/>
-      <c r="D91" s="156"/>
-      <c r="E91" s="156"/>
-      <c r="F91" s="156"/>
-      <c r="G91" s="156"/>
+      <c r="B91" s="155"/>
+      <c r="C91" s="155"/>
+      <c r="D91" s="155"/>
+      <c r="E91" s="155"/>
+      <c r="F91" s="155"/>
+      <c r="G91" s="155"/>
     </row>
     <row r="92" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
@@ -11469,15 +11466,15 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="156" t="s">
+      <c r="A102" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="B102" s="156"/>
-      <c r="C102" s="156"/>
-      <c r="D102" s="156"/>
-      <c r="E102" s="156"/>
-      <c r="F102" s="156"/>
-      <c r="G102" s="156"/>
+      <c r="B102" s="155"/>
+      <c r="C102" s="155"/>
+      <c r="D102" s="155"/>
+      <c r="E102" s="155"/>
+      <c r="F102" s="155"/>
+      <c r="G102" s="155"/>
     </row>
     <row r="103" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
@@ -11710,15 +11707,15 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="156" t="s">
+      <c r="A113" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="B113" s="156"/>
-      <c r="C113" s="156"/>
-      <c r="D113" s="156"/>
-      <c r="E113" s="156"/>
-      <c r="F113" s="156"/>
-      <c r="G113" s="156"/>
+      <c r="B113" s="155"/>
+      <c r="C113" s="155"/>
+      <c r="D113" s="155"/>
+      <c r="E113" s="155"/>
+      <c r="F113" s="155"/>
+      <c r="G113" s="155"/>
     </row>
     <row r="114" spans="1:7" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
@@ -11897,7 +11894,7 @@
       <c r="E121" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F121" s="152" t="s">
+      <c r="F121" s="151" t="s">
         <v>460</v>
       </c>
       <c r="G121" s="101"/>
@@ -11972,15 +11969,15 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="156" t="s">
+      <c r="A125" s="155" t="s">
         <v>166</v>
       </c>
-      <c r="B125" s="156"/>
-      <c r="C125" s="156"/>
-      <c r="D125" s="156"/>
-      <c r="E125" s="156"/>
-      <c r="F125" s="156"/>
-      <c r="G125" s="156"/>
+      <c r="B125" s="155"/>
+      <c r="C125" s="155"/>
+      <c r="D125" s="155"/>
+      <c r="E125" s="155"/>
+      <c r="F125" s="155"/>
+      <c r="G125" s="155"/>
     </row>
     <row r="126" spans="1:7" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
@@ -11998,10 +11995,10 @@
       <c r="E126" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F126" s="174" t="s">
+      <c r="F126" s="173" t="s">
         <v>962</v>
       </c>
-      <c r="G126" s="174" t="s">
+      <c r="G126" s="173" t="s">
         <v>747</v>
       </c>
     </row>
@@ -12021,8 +12018,8 @@
       <c r="E127" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F127" s="175"/>
-      <c r="G127" s="175"/>
+      <c r="F127" s="174"/>
+      <c r="G127" s="174"/>
     </row>
     <row r="128" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
@@ -12040,7 +12037,7 @@
       <c r="E128" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F128" s="152" t="s">
+      <c r="F128" s="151" t="s">
         <v>544</v>
       </c>
       <c r="G128" s="111"/>
@@ -12092,15 +12089,15 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="156" t="s">
+      <c r="A131" s="155" t="s">
         <v>167</v>
       </c>
-      <c r="B131" s="156"/>
-      <c r="C131" s="156"/>
-      <c r="D131" s="156"/>
-      <c r="E131" s="156"/>
-      <c r="F131" s="156"/>
-      <c r="G131" s="156"/>
+      <c r="B131" s="155"/>
+      <c r="C131" s="155"/>
+      <c r="D131" s="155"/>
+      <c r="E131" s="155"/>
+      <c r="F131" s="155"/>
+      <c r="G131" s="155"/>
     </row>
     <row r="132" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
@@ -12329,15 +12326,15 @@
       <c r="G141" s="65"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="156" t="s">
+      <c r="A142" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="B142" s="156"/>
-      <c r="C142" s="156"/>
-      <c r="D142" s="156"/>
-      <c r="E142" s="156"/>
-      <c r="F142" s="156"/>
-      <c r="G142" s="156"/>
+      <c r="B142" s="155"/>
+      <c r="C142" s="155"/>
+      <c r="D142" s="155"/>
+      <c r="E142" s="155"/>
+      <c r="F142" s="155"/>
+      <c r="G142" s="155"/>
     </row>
     <row r="143" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
@@ -12616,15 +12613,15 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="156" t="s">
+      <c r="A155" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="B155" s="156"/>
-      <c r="C155" s="156"/>
-      <c r="D155" s="156"/>
-      <c r="E155" s="156"/>
-      <c r="F155" s="156"/>
-      <c r="G155" s="156"/>
+      <c r="B155" s="155"/>
+      <c r="C155" s="155"/>
+      <c r="D155" s="155"/>
+      <c r="E155" s="155"/>
+      <c r="F155" s="155"/>
+      <c r="G155" s="155"/>
     </row>
     <row r="156" spans="1:7" ht="159.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
@@ -12967,15 +12964,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
     </row>
     <row r="3" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -13137,15 +13134,15 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="156" t="s">
+      <c r="A10" s="155" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
     </row>
     <row r="11" spans="1:7" ht="198.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -13163,10 +13160,10 @@
       <c r="E11" s="130" t="s">
         <v>380</v>
       </c>
-      <c r="F11" s="166" t="s">
+      <c r="F11" s="165" t="s">
         <v>714</v>
       </c>
-      <c r="G11" s="166" t="s">
+      <c r="G11" s="165" t="s">
         <v>709</v>
       </c>
     </row>
@@ -13186,8 +13183,8 @@
       <c r="E12" s="130" t="s">
         <v>380</v>
       </c>
-      <c r="F12" s="167"/>
-      <c r="G12" s="167"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="166"/>
     </row>
     <row r="13" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -13328,15 +13325,15 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="156" t="s">
+      <c r="A19" s="155" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="156"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
     </row>
     <row r="20" spans="1:7" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -13354,10 +13351,10 @@
       <c r="E20" s="130" t="s">
         <v>380</v>
       </c>
-      <c r="F20" s="166" t="s">
+      <c r="F20" s="165" t="s">
         <v>845</v>
       </c>
-      <c r="G20" s="166" t="s">
+      <c r="G20" s="165" t="s">
         <v>710</v>
       </c>
     </row>
@@ -13377,8 +13374,8 @@
       <c r="E21" s="130" t="s">
         <v>380</v>
       </c>
-      <c r="F21" s="167"/>
-      <c r="G21" s="167"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="166"/>
     </row>
     <row r="22" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -13634,15 +13631,15 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="156" t="s">
+      <c r="A33" s="155" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="156"/>
-      <c r="C33" s="156"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="155"/>
     </row>
     <row r="34" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
@@ -13875,15 +13872,15 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="156" t="s">
+      <c r="A44" s="155" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="156"/>
-      <c r="C44" s="156"/>
-      <c r="D44" s="156"/>
-      <c r="E44" s="156"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="156"/>
+      <c r="B44" s="155"/>
+      <c r="C44" s="155"/>
+      <c r="D44" s="155"/>
+      <c r="E44" s="155"/>
+      <c r="F44" s="155"/>
+      <c r="G44" s="155"/>
     </row>
     <row r="45" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
@@ -14093,15 +14090,15 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="156" t="s">
+      <c r="A54" s="155" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="156"/>
-      <c r="C54" s="156"/>
-      <c r="D54" s="156"/>
-      <c r="E54" s="156"/>
-      <c r="F54" s="156"/>
-      <c r="G54" s="156"/>
+      <c r="B54" s="155"/>
+      <c r="C54" s="155"/>
+      <c r="D54" s="155"/>
+      <c r="E54" s="155"/>
+      <c r="F54" s="155"/>
+      <c r="G54" s="155"/>
     </row>
     <row r="55" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
@@ -14288,15 +14285,15 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="156" t="s">
+      <c r="A63" s="155" t="s">
         <v>160</v>
       </c>
-      <c r="B63" s="156"/>
-      <c r="C63" s="156"/>
-      <c r="D63" s="156"/>
-      <c r="E63" s="156"/>
-      <c r="F63" s="156"/>
-      <c r="G63" s="156"/>
+      <c r="B63" s="155"/>
+      <c r="C63" s="155"/>
+      <c r="D63" s="155"/>
+      <c r="E63" s="155"/>
+      <c r="F63" s="155"/>
+      <c r="G63" s="155"/>
     </row>
     <row r="64" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
@@ -14414,15 +14411,15 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="156" t="s">
+      <c r="A69" s="155" t="s">
         <v>161</v>
       </c>
-      <c r="B69" s="156"/>
-      <c r="C69" s="156"/>
-      <c r="D69" s="156"/>
-      <c r="E69" s="156"/>
-      <c r="F69" s="156"/>
-      <c r="G69" s="156"/>
+      <c r="B69" s="155"/>
+      <c r="C69" s="155"/>
+      <c r="D69" s="155"/>
+      <c r="E69" s="155"/>
+      <c r="F69" s="155"/>
+      <c r="G69" s="155"/>
     </row>
     <row r="70" spans="1:7" ht="171.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
@@ -14440,10 +14437,10 @@
       <c r="E70" s="130" t="s">
         <v>380</v>
       </c>
-      <c r="F70" s="166" t="s">
+      <c r="F70" s="165" t="s">
         <v>715</v>
       </c>
-      <c r="G70" s="166" t="s">
+      <c r="G70" s="165" t="s">
         <v>708</v>
       </c>
     </row>
@@ -14463,8 +14460,8 @@
       <c r="E71" s="130" t="s">
         <v>380</v>
       </c>
-      <c r="F71" s="167"/>
-      <c r="G71" s="167"/>
+      <c r="F71" s="166"/>
+      <c r="G71" s="166"/>
     </row>
     <row r="72" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
@@ -14697,15 +14694,15 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="156" t="s">
+      <c r="A82" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="156"/>
-      <c r="C82" s="156"/>
-      <c r="D82" s="156"/>
-      <c r="E82" s="156"/>
-      <c r="F82" s="156"/>
-      <c r="G82" s="156"/>
+      <c r="B82" s="155"/>
+      <c r="C82" s="155"/>
+      <c r="D82" s="155"/>
+      <c r="E82" s="155"/>
+      <c r="F82" s="155"/>
+      <c r="G82" s="155"/>
     </row>
     <row r="83" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
@@ -14815,7 +14812,7 @@
       <c r="E87" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F87" s="152" t="s">
+      <c r="F87" s="151" t="s">
         <v>895</v>
       </c>
       <c r="G87" s="115" t="s">
@@ -14892,15 +14889,15 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="156" t="s">
+      <c r="A91" s="155" t="s">
         <v>163</v>
       </c>
-      <c r="B91" s="156"/>
-      <c r="C91" s="156"/>
-      <c r="D91" s="156"/>
-      <c r="E91" s="156"/>
-      <c r="F91" s="156"/>
-      <c r="G91" s="156"/>
+      <c r="B91" s="155"/>
+      <c r="C91" s="155"/>
+      <c r="D91" s="155"/>
+      <c r="E91" s="155"/>
+      <c r="F91" s="155"/>
+      <c r="G91" s="155"/>
     </row>
     <row r="92" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
@@ -15133,15 +15130,15 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="156" t="s">
+      <c r="A102" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="B102" s="156"/>
-      <c r="C102" s="156"/>
-      <c r="D102" s="156"/>
-      <c r="E102" s="156"/>
-      <c r="F102" s="156"/>
-      <c r="G102" s="156"/>
+      <c r="B102" s="155"/>
+      <c r="C102" s="155"/>
+      <c r="D102" s="155"/>
+      <c r="E102" s="155"/>
+      <c r="F102" s="155"/>
+      <c r="G102" s="155"/>
     </row>
     <row r="103" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
@@ -15374,15 +15371,15 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="156" t="s">
+      <c r="A113" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="B113" s="156"/>
-      <c r="C113" s="156"/>
-      <c r="D113" s="156"/>
-      <c r="E113" s="156"/>
-      <c r="F113" s="156"/>
-      <c r="G113" s="156"/>
+      <c r="B113" s="155"/>
+      <c r="C113" s="155"/>
+      <c r="D113" s="155"/>
+      <c r="E113" s="155"/>
+      <c r="F113" s="155"/>
+      <c r="G113" s="155"/>
     </row>
     <row r="114" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
@@ -15561,7 +15558,7 @@
       <c r="E121" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F121" s="152" t="s">
+      <c r="F121" s="151" t="s">
         <v>460</v>
       </c>
       <c r="G121" s="101"/>
@@ -15636,15 +15633,15 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="156" t="s">
+      <c r="A125" s="155" t="s">
         <v>166</v>
       </c>
-      <c r="B125" s="156"/>
-      <c r="C125" s="156"/>
-      <c r="D125" s="156"/>
-      <c r="E125" s="156"/>
-      <c r="F125" s="156"/>
-      <c r="G125" s="156"/>
+      <c r="B125" s="155"/>
+      <c r="C125" s="155"/>
+      <c r="D125" s="155"/>
+      <c r="E125" s="155"/>
+      <c r="F125" s="155"/>
+      <c r="G125" s="155"/>
     </row>
     <row r="126" spans="1:7" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
@@ -15662,10 +15659,10 @@
       <c r="E126" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F126" s="174" t="s">
+      <c r="F126" s="173" t="s">
         <v>749</v>
       </c>
-      <c r="G126" s="174" t="s">
+      <c r="G126" s="173" t="s">
         <v>748</v>
       </c>
     </row>
@@ -15685,8 +15682,8 @@
       <c r="E127" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F127" s="175"/>
-      <c r="G127" s="175"/>
+      <c r="F127" s="174"/>
+      <c r="G127" s="174"/>
     </row>
     <row r="128" spans="1:7" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
@@ -15704,7 +15701,7 @@
       <c r="E128" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F128" s="152" t="s">
+      <c r="F128" s="151" t="s">
         <v>544</v>
       </c>
       <c r="G128" s="111"/>
@@ -15756,15 +15753,15 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="156" t="s">
+      <c r="A131" s="155" t="s">
         <v>167</v>
       </c>
-      <c r="B131" s="156"/>
-      <c r="C131" s="156"/>
-      <c r="D131" s="156"/>
-      <c r="E131" s="156"/>
-      <c r="F131" s="156"/>
-      <c r="G131" s="156"/>
+      <c r="B131" s="155"/>
+      <c r="C131" s="155"/>
+      <c r="D131" s="155"/>
+      <c r="E131" s="155"/>
+      <c r="F131" s="155"/>
+      <c r="G131" s="155"/>
     </row>
     <row r="132" spans="1:7" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
@@ -15851,10 +15848,10 @@
       <c r="E135" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F135" s="166" t="s">
+      <c r="F135" s="165" t="s">
         <v>940</v>
       </c>
-      <c r="G135" s="166" t="s">
+      <c r="G135" s="165" t="s">
         <v>718</v>
       </c>
     </row>
@@ -15874,8 +15871,8 @@
       <c r="E136" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F136" s="167"/>
-      <c r="G136" s="167"/>
+      <c r="F136" s="166"/>
+      <c r="G136" s="166"/>
     </row>
     <row r="137" spans="1:7" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
@@ -15993,15 +15990,15 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="156" t="s">
+      <c r="A142" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="B142" s="156"/>
-      <c r="C142" s="156"/>
-      <c r="D142" s="156"/>
-      <c r="E142" s="156"/>
-      <c r="F142" s="156"/>
-      <c r="G142" s="156"/>
+      <c r="B142" s="155"/>
+      <c r="C142" s="155"/>
+      <c r="D142" s="155"/>
+      <c r="E142" s="155"/>
+      <c r="F142" s="155"/>
+      <c r="G142" s="155"/>
     </row>
     <row r="143" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
@@ -16280,15 +16277,15 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="156" t="s">
+      <c r="A155" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="B155" s="156"/>
-      <c r="C155" s="156"/>
-      <c r="D155" s="156"/>
-      <c r="E155" s="156"/>
-      <c r="F155" s="156"/>
-      <c r="G155" s="156"/>
+      <c r="B155" s="155"/>
+      <c r="C155" s="155"/>
+      <c r="D155" s="155"/>
+      <c r="E155" s="155"/>
+      <c r="F155" s="155"/>
+      <c r="G155" s="155"/>
     </row>
     <row r="156" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
@@ -16639,15 +16636,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
     </row>
     <row r="3" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -16668,7 +16665,7 @@
       <c r="F3" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G3" s="164" t="s">
+      <c r="G3" s="163" t="s">
         <v>352</v>
       </c>
     </row>
@@ -16691,7 +16688,7 @@
       <c r="F4" s="94" t="s">
         <v>666</v>
       </c>
-      <c r="G4" s="164"/>
+      <c r="G4" s="163"/>
     </row>
     <row r="5" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -16712,7 +16709,7 @@
       <c r="F5" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G5" s="164"/>
+      <c r="G5" s="163"/>
     </row>
     <row r="6" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -16733,7 +16730,7 @@
       <c r="F6" s="94" t="s">
         <v>668</v>
       </c>
-      <c r="G6" s="164"/>
+      <c r="G6" s="163"/>
     </row>
     <row r="7" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -16754,7 +16751,7 @@
       <c r="F7" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G7" s="164"/>
+      <c r="G7" s="163"/>
     </row>
     <row r="8" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -16775,7 +16772,7 @@
       <c r="F8" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G8" s="164"/>
+      <c r="G8" s="163"/>
     </row>
     <row r="9" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -16796,18 +16793,18 @@
       <c r="F9" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G9" s="164"/>
+      <c r="G9" s="163"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="156" t="s">
+      <c r="A10" s="155" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
     </row>
     <row r="11" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -16822,13 +16819,13 @@
       <c r="D11" s="51" t="s">
         <v>379</v>
       </c>
-      <c r="E11" s="165" t="s">
+      <c r="E11" s="164" t="s">
         <v>669</v>
       </c>
-      <c r="F11" s="176" t="s">
+      <c r="F11" s="175" t="s">
         <v>670</v>
       </c>
-      <c r="G11" s="164" t="s">
+      <c r="G11" s="163" t="s">
         <v>353</v>
       </c>
     </row>
@@ -16845,9 +16842,9 @@
       <c r="D12" s="51" t="s">
         <v>379</v>
       </c>
-      <c r="E12" s="165"/>
-      <c r="F12" s="177"/>
-      <c r="G12" s="164"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="176"/>
+      <c r="G12" s="163"/>
     </row>
     <row r="13" spans="1:7" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -16868,7 +16865,7 @@
       <c r="F13" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G13" s="164"/>
+      <c r="G13" s="163"/>
     </row>
     <row r="14" spans="1:7" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -16889,7 +16886,7 @@
       <c r="F14" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G14" s="164"/>
+      <c r="G14" s="163"/>
     </row>
     <row r="15" spans="1:7" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -16910,7 +16907,7 @@
       <c r="F15" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G15" s="164"/>
+      <c r="G15" s="163"/>
     </row>
     <row r="16" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -16931,7 +16928,7 @@
       <c r="F16" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G16" s="164"/>
+      <c r="G16" s="163"/>
     </row>
     <row r="17" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -16952,7 +16949,7 @@
       <c r="F17" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G17" s="164"/>
+      <c r="G17" s="163"/>
     </row>
     <row r="18" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -16973,18 +16970,18 @@
       <c r="F18" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G18" s="164"/>
+      <c r="G18" s="163"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="156" t="s">
+      <c r="A19" s="155" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="156"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
     </row>
     <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -17005,7 +17002,7 @@
       <c r="F20" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G20" s="164" t="s">
+      <c r="G20" s="163" t="s">
         <v>354</v>
       </c>
     </row>
@@ -17028,7 +17025,7 @@
       <c r="F21" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G21" s="164"/>
+      <c r="G21" s="163"/>
     </row>
     <row r="22" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -17049,7 +17046,7 @@
       <c r="F22" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G22" s="164"/>
+      <c r="G22" s="163"/>
     </row>
     <row r="23" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -17068,7 +17065,7 @@
         <v>355</v>
       </c>
       <c r="F23" s="94"/>
-      <c r="G23" s="164"/>
+      <c r="G23" s="163"/>
     </row>
     <row r="24" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
@@ -17089,7 +17086,7 @@
       <c r="F24" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G24" s="164"/>
+      <c r="G24" s="163"/>
     </row>
     <row r="25" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -17110,7 +17107,7 @@
       <c r="F25" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G25" s="164"/>
+      <c r="G25" s="163"/>
     </row>
     <row r="26" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -17131,7 +17128,7 @@
       <c r="F26" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G26" s="164"/>
+      <c r="G26" s="163"/>
     </row>
     <row r="27" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -17152,7 +17149,7 @@
       <c r="F27" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G27" s="164"/>
+      <c r="G27" s="163"/>
     </row>
     <row r="28" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -17173,7 +17170,7 @@
       <c r="F28" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G28" s="164"/>
+      <c r="G28" s="163"/>
     </row>
     <row r="29" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
@@ -17194,7 +17191,7 @@
       <c r="F29" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G29" s="164"/>
+      <c r="G29" s="163"/>
     </row>
     <row r="30" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
@@ -17215,7 +17212,7 @@
       <c r="F30" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G30" s="164"/>
+      <c r="G30" s="163"/>
     </row>
     <row r="31" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
@@ -17236,7 +17233,7 @@
       <c r="F31" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G31" s="164"/>
+      <c r="G31" s="163"/>
     </row>
     <row r="32" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -17257,18 +17254,18 @@
       <c r="F32" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G32" s="164"/>
+      <c r="G32" s="163"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="156" t="s">
+      <c r="A33" s="155" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="156"/>
-      <c r="C33" s="156"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="155"/>
     </row>
     <row r="34" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
@@ -17289,7 +17286,7 @@
       <c r="F34" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G34" s="164" t="s">
+      <c r="G34" s="163" t="s">
         <v>320</v>
       </c>
     </row>
@@ -17312,7 +17309,7 @@
       <c r="F35" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G35" s="164"/>
+      <c r="G35" s="163"/>
     </row>
     <row r="36" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
@@ -17333,7 +17330,7 @@
       <c r="F36" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G36" s="164"/>
+      <c r="G36" s="163"/>
     </row>
     <row r="37" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
@@ -17354,7 +17351,7 @@
       <c r="F37" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G37" s="164"/>
+      <c r="G37" s="163"/>
     </row>
     <row r="38" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
@@ -17375,7 +17372,7 @@
       <c r="F38" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G38" s="164"/>
+      <c r="G38" s="163"/>
     </row>
     <row r="39" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
@@ -17396,7 +17393,7 @@
       <c r="F39" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G39" s="164"/>
+      <c r="G39" s="163"/>
     </row>
     <row r="40" spans="1:7" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
@@ -17417,7 +17414,7 @@
       <c r="F40" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G40" s="164"/>
+      <c r="G40" s="163"/>
     </row>
     <row r="41" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
@@ -17438,7 +17435,7 @@
       <c r="F41" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G41" s="164"/>
+      <c r="G41" s="163"/>
     </row>
     <row r="42" spans="1:7" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
@@ -17459,7 +17456,7 @@
       <c r="F42" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G42" s="164"/>
+      <c r="G42" s="163"/>
     </row>
     <row r="43" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
@@ -17480,18 +17477,18 @@
       <c r="F43" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G43" s="164"/>
+      <c r="G43" s="163"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="156" t="s">
+      <c r="A44" s="155" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="156"/>
-      <c r="C44" s="156"/>
-      <c r="D44" s="156"/>
-      <c r="E44" s="156"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="156"/>
+      <c r="B44" s="155"/>
+      <c r="C44" s="155"/>
+      <c r="D44" s="155"/>
+      <c r="E44" s="155"/>
+      <c r="F44" s="155"/>
+      <c r="G44" s="155"/>
     </row>
     <row r="45" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
@@ -17512,7 +17509,7 @@
       <c r="F45" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G45" s="164" t="s">
+      <c r="G45" s="163" t="s">
         <v>320</v>
       </c>
     </row>
@@ -17535,7 +17532,7 @@
       <c r="F46" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G46" s="164"/>
+      <c r="G46" s="163"/>
     </row>
     <row r="47" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
@@ -17556,7 +17553,7 @@
       <c r="F47" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G47" s="164"/>
+      <c r="G47" s="163"/>
     </row>
     <row r="48" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
@@ -17577,7 +17574,7 @@
       <c r="F48" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G48" s="164"/>
+      <c r="G48" s="163"/>
     </row>
     <row r="49" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
@@ -17598,7 +17595,7 @@
       <c r="F49" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G49" s="164"/>
+      <c r="G49" s="163"/>
     </row>
     <row r="50" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
@@ -17619,7 +17616,7 @@
       <c r="F50" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G50" s="164"/>
+      <c r="G50" s="163"/>
     </row>
     <row r="51" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
@@ -17640,7 +17637,7 @@
       <c r="F51" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G51" s="164"/>
+      <c r="G51" s="163"/>
     </row>
     <row r="52" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
@@ -17661,7 +17658,7 @@
       <c r="F52" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G52" s="164"/>
+      <c r="G52" s="163"/>
     </row>
     <row r="53" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
@@ -17682,18 +17679,18 @@
       <c r="F53" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G53" s="164"/>
+      <c r="G53" s="163"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="156" t="s">
+      <c r="A54" s="155" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="156"/>
-      <c r="C54" s="156"/>
-      <c r="D54" s="156"/>
-      <c r="E54" s="156"/>
-      <c r="F54" s="156"/>
-      <c r="G54" s="156"/>
+      <c r="B54" s="155"/>
+      <c r="C54" s="155"/>
+      <c r="D54" s="155"/>
+      <c r="E54" s="155"/>
+      <c r="F54" s="155"/>
+      <c r="G54" s="155"/>
     </row>
     <row r="55" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
@@ -17714,7 +17711,7 @@
       <c r="F55" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G55" s="164" t="s">
+      <c r="G55" s="163" t="s">
         <v>320</v>
       </c>
     </row>
@@ -17737,7 +17734,7 @@
       <c r="F56" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G56" s="164"/>
+      <c r="G56" s="163"/>
     </row>
     <row r="57" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
@@ -17758,7 +17755,7 @@
       <c r="F57" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G57" s="164"/>
+      <c r="G57" s="163"/>
     </row>
     <row r="58" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
@@ -17779,7 +17776,7 @@
       <c r="F58" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G58" s="164"/>
+      <c r="G58" s="163"/>
     </row>
     <row r="59" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
@@ -17800,7 +17797,7 @@
       <c r="F59" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G59" s="164"/>
+      <c r="G59" s="163"/>
     </row>
     <row r="60" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
@@ -17821,7 +17818,7 @@
       <c r="F60" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G60" s="164"/>
+      <c r="G60" s="163"/>
     </row>
     <row r="61" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
@@ -17842,7 +17839,7 @@
       <c r="F61" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G61" s="164"/>
+      <c r="G61" s="163"/>
     </row>
     <row r="62" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
@@ -17863,18 +17860,18 @@
       <c r="F62" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G62" s="164"/>
+      <c r="G62" s="163"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="156" t="s">
+      <c r="A63" s="155" t="s">
         <v>160</v>
       </c>
-      <c r="B63" s="156"/>
-      <c r="C63" s="156"/>
-      <c r="D63" s="156"/>
-      <c r="E63" s="156"/>
-      <c r="F63" s="156"/>
-      <c r="G63" s="156"/>
+      <c r="B63" s="155"/>
+      <c r="C63" s="155"/>
+      <c r="D63" s="155"/>
+      <c r="E63" s="155"/>
+      <c r="F63" s="155"/>
+      <c r="G63" s="155"/>
     </row>
     <row r="64" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
@@ -17895,7 +17892,7 @@
       <c r="F64" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G64" s="164" t="s">
+      <c r="G64" s="163" t="s">
         <v>320</v>
       </c>
     </row>
@@ -17918,7 +17915,7 @@
       <c r="F65" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G65" s="164"/>
+      <c r="G65" s="163"/>
     </row>
     <row r="66" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
@@ -17939,7 +17936,7 @@
       <c r="F66" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G66" s="164"/>
+      <c r="G66" s="163"/>
     </row>
     <row r="67" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
@@ -17960,7 +17957,7 @@
       <c r="F67" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G67" s="164"/>
+      <c r="G67" s="163"/>
     </row>
     <row r="68" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
@@ -17981,18 +17978,18 @@
       <c r="F68" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G68" s="164"/>
+      <c r="G68" s="163"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="156" t="s">
+      <c r="A69" s="155" t="s">
         <v>161</v>
       </c>
-      <c r="B69" s="156"/>
-      <c r="C69" s="156"/>
-      <c r="D69" s="156"/>
-      <c r="E69" s="156"/>
-      <c r="F69" s="156"/>
-      <c r="G69" s="156"/>
+      <c r="B69" s="155"/>
+      <c r="C69" s="155"/>
+      <c r="D69" s="155"/>
+      <c r="E69" s="155"/>
+      <c r="F69" s="155"/>
+      <c r="G69" s="155"/>
     </row>
     <row r="70" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
@@ -18013,7 +18010,7 @@
       <c r="F70" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G70" s="164" t="s">
+      <c r="G70" s="163" t="s">
         <v>356</v>
       </c>
     </row>
@@ -18036,7 +18033,7 @@
       <c r="F71" s="94" t="s">
         <v>666</v>
       </c>
-      <c r="G71" s="164"/>
+      <c r="G71" s="163"/>
     </row>
     <row r="72" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
@@ -18057,7 +18054,7 @@
       <c r="F72" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G72" s="164"/>
+      <c r="G72" s="163"/>
     </row>
     <row r="73" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
@@ -18076,7 +18073,7 @@
         <v>320</v>
       </c>
       <c r="F73" s="94"/>
-      <c r="G73" s="164"/>
+      <c r="G73" s="163"/>
     </row>
     <row r="74" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
@@ -18095,7 +18092,7 @@
         <v>357</v>
       </c>
       <c r="F74" s="95"/>
-      <c r="G74" s="164"/>
+      <c r="G74" s="163"/>
     </row>
     <row r="75" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
@@ -18112,7 +18109,7 @@
         <v>320</v>
       </c>
       <c r="F75" s="94"/>
-      <c r="G75" s="164"/>
+      <c r="G75" s="163"/>
     </row>
     <row r="76" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
@@ -18133,7 +18130,7 @@
       <c r="F76" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G76" s="164"/>
+      <c r="G76" s="163"/>
     </row>
     <row r="77" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
@@ -18154,7 +18151,7 @@
       <c r="F77" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G77" s="164"/>
+      <c r="G77" s="163"/>
     </row>
     <row r="78" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
@@ -18175,7 +18172,7 @@
       <c r="F78" s="98" t="s">
         <v>673</v>
       </c>
-      <c r="G78" s="164"/>
+      <c r="G78" s="163"/>
     </row>
     <row r="79" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
@@ -18196,7 +18193,7 @@
       <c r="F79" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G79" s="164"/>
+      <c r="G79" s="163"/>
     </row>
     <row r="80" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
@@ -18217,7 +18214,7 @@
       <c r="F80" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G80" s="164"/>
+      <c r="G80" s="163"/>
     </row>
     <row r="81" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
@@ -18238,18 +18235,18 @@
       <c r="F81" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G81" s="164"/>
+      <c r="G81" s="163"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="156" t="s">
+      <c r="A82" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="156"/>
-      <c r="C82" s="156"/>
-      <c r="D82" s="156"/>
-      <c r="E82" s="156"/>
-      <c r="F82" s="156"/>
-      <c r="G82" s="156"/>
+      <c r="B82" s="155"/>
+      <c r="C82" s="155"/>
+      <c r="D82" s="155"/>
+      <c r="E82" s="155"/>
+      <c r="F82" s="155"/>
+      <c r="G82" s="155"/>
     </row>
     <row r="83" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
@@ -18270,7 +18267,7 @@
       <c r="F83" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G83" s="164" t="s">
+      <c r="G83" s="163" t="s">
         <v>320</v>
       </c>
     </row>
@@ -18293,7 +18290,7 @@
       <c r="F84" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G84" s="164"/>
+      <c r="G84" s="163"/>
     </row>
     <row r="85" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
@@ -18314,7 +18311,7 @@
       <c r="F85" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G85" s="164"/>
+      <c r="G85" s="163"/>
     </row>
     <row r="86" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
@@ -18335,7 +18332,7 @@
       <c r="F86" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G86" s="164"/>
+      <c r="G86" s="163"/>
     </row>
     <row r="87" spans="1:7" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
@@ -18356,7 +18353,7 @@
       <c r="F87" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G87" s="164"/>
+      <c r="G87" s="163"/>
     </row>
     <row r="88" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
@@ -18377,7 +18374,7 @@
       <c r="F88" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G88" s="164"/>
+      <c r="G88" s="163"/>
     </row>
     <row r="89" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
@@ -18398,7 +18395,7 @@
       <c r="F89" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G89" s="164"/>
+      <c r="G89" s="163"/>
     </row>
     <row r="90" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
@@ -18419,18 +18416,18 @@
       <c r="F90" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G90" s="164"/>
+      <c r="G90" s="163"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="156" t="s">
+      <c r="A91" s="155" t="s">
         <v>163</v>
       </c>
-      <c r="B91" s="156"/>
-      <c r="C91" s="156"/>
-      <c r="D91" s="156"/>
-      <c r="E91" s="156"/>
-      <c r="F91" s="156"/>
-      <c r="G91" s="156"/>
+      <c r="B91" s="155"/>
+      <c r="C91" s="155"/>
+      <c r="D91" s="155"/>
+      <c r="E91" s="155"/>
+      <c r="F91" s="155"/>
+      <c r="G91" s="155"/>
     </row>
     <row r="92" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
@@ -18451,7 +18448,7 @@
       <c r="F92" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G92" s="164" t="s">
+      <c r="G92" s="163" t="s">
         <v>320</v>
       </c>
     </row>
@@ -18474,7 +18471,7 @@
       <c r="F93" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G93" s="164"/>
+      <c r="G93" s="163"/>
     </row>
     <row r="94" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
@@ -18495,7 +18492,7 @@
       <c r="F94" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G94" s="164"/>
+      <c r="G94" s="163"/>
     </row>
     <row r="95" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
@@ -18516,7 +18513,7 @@
       <c r="F95" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G95" s="164"/>
+      <c r="G95" s="163"/>
     </row>
     <row r="96" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
@@ -18537,7 +18534,7 @@
       <c r="F96" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G96" s="164"/>
+      <c r="G96" s="163"/>
     </row>
     <row r="97" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
@@ -18558,7 +18555,7 @@
       <c r="F97" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G97" s="164"/>
+      <c r="G97" s="163"/>
     </row>
     <row r="98" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
@@ -18579,7 +18576,7 @@
       <c r="F98" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G98" s="164"/>
+      <c r="G98" s="163"/>
     </row>
     <row r="99" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
@@ -18600,7 +18597,7 @@
       <c r="F99" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G99" s="164"/>
+      <c r="G99" s="163"/>
     </row>
     <row r="100" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
@@ -18621,7 +18618,7 @@
       <c r="F100" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G100" s="164"/>
+      <c r="G100" s="163"/>
     </row>
     <row r="101" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
@@ -18642,18 +18639,18 @@
       <c r="F101" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G101" s="164"/>
+      <c r="G101" s="163"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="156" t="s">
+      <c r="A102" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="B102" s="156"/>
-      <c r="C102" s="156"/>
-      <c r="D102" s="156"/>
-      <c r="E102" s="156"/>
-      <c r="F102" s="156"/>
-      <c r="G102" s="156"/>
+      <c r="B102" s="155"/>
+      <c r="C102" s="155"/>
+      <c r="D102" s="155"/>
+      <c r="E102" s="155"/>
+      <c r="F102" s="155"/>
+      <c r="G102" s="155"/>
     </row>
     <row r="103" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
@@ -18674,7 +18671,7 @@
       <c r="F103" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G103" s="164" t="s">
+      <c r="G103" s="163" t="s">
         <v>320</v>
       </c>
     </row>
@@ -18697,7 +18694,7 @@
       <c r="F104" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G104" s="164"/>
+      <c r="G104" s="163"/>
     </row>
     <row r="105" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
@@ -18718,7 +18715,7 @@
       <c r="F105" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G105" s="164"/>
+      <c r="G105" s="163"/>
     </row>
     <row r="106" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
@@ -18739,7 +18736,7 @@
       <c r="F106" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G106" s="164"/>
+      <c r="G106" s="163"/>
     </row>
     <row r="107" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
@@ -18760,7 +18757,7 @@
       <c r="F107" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G107" s="164"/>
+      <c r="G107" s="163"/>
     </row>
     <row r="108" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
@@ -18781,7 +18778,7 @@
       <c r="F108" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G108" s="164"/>
+      <c r="G108" s="163"/>
     </row>
     <row r="109" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
@@ -18802,7 +18799,7 @@
       <c r="F109" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G109" s="164"/>
+      <c r="G109" s="163"/>
     </row>
     <row r="110" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
@@ -18823,7 +18820,7 @@
       <c r="F110" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G110" s="164"/>
+      <c r="G110" s="163"/>
     </row>
     <row r="111" spans="1:7" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
@@ -18844,7 +18841,7 @@
       <c r="F111" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G111" s="164"/>
+      <c r="G111" s="163"/>
     </row>
     <row r="112" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
@@ -18865,18 +18862,18 @@
       <c r="F112" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="G112" s="164"/>
+      <c r="G112" s="163"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="156" t="s">
+      <c r="A113" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="B113" s="156"/>
-      <c r="C113" s="156"/>
-      <c r="D113" s="156"/>
-      <c r="E113" s="156"/>
-      <c r="F113" s="156"/>
-      <c r="G113" s="156"/>
+      <c r="B113" s="155"/>
+      <c r="C113" s="155"/>
+      <c r="D113" s="155"/>
+      <c r="E113" s="155"/>
+      <c r="F113" s="155"/>
+      <c r="G113" s="155"/>
     </row>
     <row r="114" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
@@ -18895,7 +18892,7 @@
         <v>360</v>
       </c>
       <c r="F114" s="94"/>
-      <c r="G114" s="164" t="s">
+      <c r="G114" s="163" t="s">
         <v>358</v>
       </c>
     </row>
@@ -18914,7 +18911,7 @@
         <v>359</v>
       </c>
       <c r="F115" s="94"/>
-      <c r="G115" s="164"/>
+      <c r="G115" s="163"/>
     </row>
     <row r="116" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
@@ -18931,7 +18928,7 @@
         <v>320</v>
       </c>
       <c r="F116" s="94"/>
-      <c r="G116" s="164"/>
+      <c r="G116" s="163"/>
     </row>
     <row r="117" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
@@ -18948,7 +18945,7 @@
         <v>320</v>
       </c>
       <c r="F117" s="94"/>
-      <c r="G117" s="164"/>
+      <c r="G117" s="163"/>
     </row>
     <row r="118" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
@@ -18965,7 +18962,7 @@
         <v>320</v>
       </c>
       <c r="F118" s="94"/>
-      <c r="G118" s="164"/>
+      <c r="G118" s="163"/>
     </row>
     <row r="119" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
@@ -18982,7 +18979,7 @@
         <v>320</v>
       </c>
       <c r="F119" s="94"/>
-      <c r="G119" s="164"/>
+      <c r="G119" s="163"/>
     </row>
     <row r="120" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
@@ -18999,7 +18996,7 @@
         <v>361</v>
       </c>
       <c r="F120" s="94"/>
-      <c r="G120" s="164"/>
+      <c r="G120" s="163"/>
     </row>
     <row r="121" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
@@ -19016,7 +19013,7 @@
         <v>327</v>
       </c>
       <c r="F121" s="95"/>
-      <c r="G121" s="164"/>
+      <c r="G121" s="163"/>
     </row>
     <row r="122" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
@@ -19033,7 +19030,7 @@
         <v>327</v>
       </c>
       <c r="F122" s="95"/>
-      <c r="G122" s="164"/>
+      <c r="G122" s="163"/>
     </row>
     <row r="123" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
@@ -19050,7 +19047,7 @@
         <v>326</v>
       </c>
       <c r="F123" s="95"/>
-      <c r="G123" s="164"/>
+      <c r="G123" s="163"/>
     </row>
     <row r="124" spans="1:7" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
@@ -19067,18 +19064,18 @@
         <v>320</v>
       </c>
       <c r="F124" s="94"/>
-      <c r="G124" s="164"/>
+      <c r="G124" s="163"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="156" t="s">
+      <c r="A125" s="155" t="s">
         <v>166</v>
       </c>
-      <c r="B125" s="156"/>
-      <c r="C125" s="156"/>
-      <c r="D125" s="156"/>
-      <c r="E125" s="156"/>
-      <c r="F125" s="156"/>
-      <c r="G125" s="156"/>
+      <c r="B125" s="155"/>
+      <c r="C125" s="155"/>
+      <c r="D125" s="155"/>
+      <c r="E125" s="155"/>
+      <c r="F125" s="155"/>
+      <c r="G125" s="155"/>
     </row>
     <row r="126" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
@@ -19091,11 +19088,11 @@
         <v>1</v>
       </c>
       <c r="D126" s="85"/>
-      <c r="E126" s="164" t="s">
+      <c r="E126" s="163" t="s">
         <v>363</v>
       </c>
       <c r="F126" s="94"/>
-      <c r="G126" s="164" t="s">
+      <c r="G126" s="163" t="s">
         <v>362</v>
       </c>
     </row>
@@ -19110,9 +19107,9 @@
         <v>1</v>
       </c>
       <c r="D127" s="85"/>
-      <c r="E127" s="164"/>
+      <c r="E127" s="163"/>
       <c r="F127" s="94"/>
-      <c r="G127" s="164"/>
+      <c r="G127" s="163"/>
     </row>
     <row r="128" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
@@ -19129,7 +19126,7 @@
         <v>364</v>
       </c>
       <c r="F128" s="96"/>
-      <c r="G128" s="164"/>
+      <c r="G128" s="163"/>
     </row>
     <row r="129" spans="1:7" ht="156" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
@@ -19146,7 +19143,7 @@
         <v>320</v>
       </c>
       <c r="F129" s="94"/>
-      <c r="G129" s="164"/>
+      <c r="G129" s="163"/>
     </row>
     <row r="130" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
@@ -19163,18 +19160,18 @@
         <v>320</v>
       </c>
       <c r="F130" s="94"/>
-      <c r="G130" s="164"/>
+      <c r="G130" s="163"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="156" t="s">
+      <c r="A131" s="155" t="s">
         <v>167</v>
       </c>
-      <c r="B131" s="156"/>
-      <c r="C131" s="156"/>
-      <c r="D131" s="156"/>
-      <c r="E131" s="156"/>
-      <c r="F131" s="156"/>
-      <c r="G131" s="156"/>
+      <c r="B131" s="155"/>
+      <c r="C131" s="155"/>
+      <c r="D131" s="155"/>
+      <c r="E131" s="155"/>
+      <c r="F131" s="155"/>
+      <c r="G131" s="155"/>
     </row>
     <row r="132" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
@@ -19191,7 +19188,7 @@
         <v>366</v>
       </c>
       <c r="F132" s="94"/>
-      <c r="G132" s="164" t="s">
+      <c r="G132" s="163" t="s">
         <v>365</v>
       </c>
     </row>
@@ -19210,7 +19207,7 @@
         <v>367</v>
       </c>
       <c r="F133" s="94"/>
-      <c r="G133" s="164"/>
+      <c r="G133" s="163"/>
     </row>
     <row r="134" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
@@ -19227,7 +19224,7 @@
         <v>320</v>
       </c>
       <c r="F134" s="94"/>
-      <c r="G134" s="164"/>
+      <c r="G134" s="163"/>
     </row>
     <row r="135" spans="1:7" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
@@ -19244,7 +19241,7 @@
         <v>368</v>
       </c>
       <c r="F135" s="94"/>
-      <c r="G135" s="164"/>
+      <c r="G135" s="163"/>
     </row>
     <row r="136" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
@@ -19259,7 +19256,7 @@
       <c r="D136" s="85"/>
       <c r="E136" s="94"/>
       <c r="F136" s="94"/>
-      <c r="G136" s="164"/>
+      <c r="G136" s="163"/>
     </row>
     <row r="137" spans="1:7" ht="156" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
@@ -19276,7 +19273,7 @@
         <v>369</v>
       </c>
       <c r="F137" s="94"/>
-      <c r="G137" s="164"/>
+      <c r="G137" s="163"/>
     </row>
     <row r="138" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
@@ -19293,7 +19290,7 @@
         <v>320</v>
       </c>
       <c r="F138" s="94"/>
-      <c r="G138" s="164"/>
+      <c r="G138" s="163"/>
     </row>
     <row r="139" spans="1:7" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
@@ -19310,7 +19307,7 @@
         <v>320</v>
       </c>
       <c r="F139" s="94"/>
-      <c r="G139" s="164"/>
+      <c r="G139" s="163"/>
     </row>
     <row r="140" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
@@ -19327,7 +19324,7 @@
         <v>320</v>
       </c>
       <c r="F140" s="94"/>
-      <c r="G140" s="164"/>
+      <c r="G140" s="163"/>
     </row>
     <row r="141" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
@@ -19344,18 +19341,18 @@
         <v>320</v>
       </c>
       <c r="F141" s="94"/>
-      <c r="G141" s="164"/>
+      <c r="G141" s="163"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="156" t="s">
+      <c r="A142" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="B142" s="156"/>
-      <c r="C142" s="156"/>
-      <c r="D142" s="156"/>
-      <c r="E142" s="156"/>
-      <c r="F142" s="156"/>
-      <c r="G142" s="156"/>
+      <c r="B142" s="155"/>
+      <c r="C142" s="155"/>
+      <c r="D142" s="155"/>
+      <c r="E142" s="155"/>
+      <c r="F142" s="155"/>
+      <c r="G142" s="155"/>
     </row>
     <row r="143" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
@@ -19372,7 +19369,7 @@
         <v>320</v>
       </c>
       <c r="F143" s="94"/>
-      <c r="G143" s="164" t="s">
+      <c r="G143" s="163" t="s">
         <v>320</v>
       </c>
     </row>
@@ -19391,7 +19388,7 @@
         <v>320</v>
       </c>
       <c r="F144" s="94"/>
-      <c r="G144" s="164"/>
+      <c r="G144" s="163"/>
     </row>
     <row r="145" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
@@ -19408,7 +19405,7 @@
         <v>320</v>
       </c>
       <c r="F145" s="94"/>
-      <c r="G145" s="164"/>
+      <c r="G145" s="163"/>
     </row>
     <row r="146" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
@@ -19425,7 +19422,7 @@
         <v>320</v>
       </c>
       <c r="F146" s="94"/>
-      <c r="G146" s="164"/>
+      <c r="G146" s="163"/>
     </row>
     <row r="147" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
@@ -19442,7 +19439,7 @@
         <v>320</v>
       </c>
       <c r="F147" s="94"/>
-      <c r="G147" s="164"/>
+      <c r="G147" s="163"/>
     </row>
     <row r="148" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
@@ -19459,7 +19456,7 @@
         <v>320</v>
       </c>
       <c r="F148" s="94"/>
-      <c r="G148" s="164"/>
+      <c r="G148" s="163"/>
     </row>
     <row r="149" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
@@ -19476,7 +19473,7 @@
         <v>320</v>
       </c>
       <c r="F149" s="94"/>
-      <c r="G149" s="164"/>
+      <c r="G149" s="163"/>
     </row>
     <row r="150" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
@@ -19493,7 +19490,7 @@
         <v>320</v>
       </c>
       <c r="F150" s="94"/>
-      <c r="G150" s="164"/>
+      <c r="G150" s="163"/>
     </row>
     <row r="151" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
@@ -19510,7 +19507,7 @@
         <v>320</v>
       </c>
       <c r="F151" s="94"/>
-      <c r="G151" s="164"/>
+      <c r="G151" s="163"/>
     </row>
     <row r="152" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
@@ -19527,7 +19524,7 @@
         <v>320</v>
       </c>
       <c r="F152" s="94"/>
-      <c r="G152" s="164"/>
+      <c r="G152" s="163"/>
     </row>
     <row r="153" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
@@ -19544,7 +19541,7 @@
         <v>320</v>
       </c>
       <c r="F153" s="94"/>
-      <c r="G153" s="164"/>
+      <c r="G153" s="163"/>
     </row>
     <row r="154" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
@@ -19561,18 +19558,18 @@
         <v>320</v>
       </c>
       <c r="F154" s="94"/>
-      <c r="G154" s="164"/>
+      <c r="G154" s="163"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="156" t="s">
+      <c r="A155" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="B155" s="156"/>
-      <c r="C155" s="156"/>
-      <c r="D155" s="156"/>
-      <c r="E155" s="156"/>
-      <c r="F155" s="156"/>
-      <c r="G155" s="156"/>
+      <c r="B155" s="155"/>
+      <c r="C155" s="155"/>
+      <c r="D155" s="155"/>
+      <c r="E155" s="155"/>
+      <c r="F155" s="155"/>
+      <c r="G155" s="155"/>
     </row>
     <row r="156" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
@@ -19587,7 +19584,7 @@
       <c r="D156" s="47"/>
       <c r="E156" s="94"/>
       <c r="F156" s="94"/>
-      <c r="G156" s="164" t="s">
+      <c r="G156" s="163" t="s">
         <v>370</v>
       </c>
     </row>
@@ -19604,7 +19601,7 @@
       <c r="D157" s="86"/>
       <c r="E157" s="94"/>
       <c r="F157" s="94"/>
-      <c r="G157" s="164"/>
+      <c r="G157" s="163"/>
     </row>
     <row r="158" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
@@ -19619,7 +19616,7 @@
       <c r="D158" s="47"/>
       <c r="E158" s="94"/>
       <c r="F158" s="94"/>
-      <c r="G158" s="164"/>
+      <c r="G158" s="163"/>
     </row>
     <row r="159" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
@@ -19636,7 +19633,7 @@
         <v>368</v>
       </c>
       <c r="F159" s="94"/>
-      <c r="G159" s="164"/>
+      <c r="G159" s="163"/>
     </row>
     <row r="160" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
@@ -19651,7 +19648,7 @@
       <c r="D160" s="86"/>
       <c r="E160" s="94"/>
       <c r="F160" s="94"/>
-      <c r="G160" s="164"/>
+      <c r="G160" s="163"/>
     </row>
     <row r="161" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
@@ -19666,7 +19663,7 @@
       <c r="D161" s="86"/>
       <c r="E161" s="94"/>
       <c r="F161" s="94"/>
-      <c r="G161" s="164"/>
+      <c r="G161" s="163"/>
     </row>
     <row r="162" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
@@ -19683,7 +19680,7 @@
         <v>344</v>
       </c>
       <c r="F162" s="97"/>
-      <c r="G162" s="164"/>
+      <c r="G162" s="163"/>
     </row>
     <row r="163" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
@@ -19698,7 +19695,7 @@
       <c r="D163" s="47"/>
       <c r="E163" s="94"/>
       <c r="F163" s="94"/>
-      <c r="G163" s="164"/>
+      <c r="G163" s="163"/>
     </row>
     <row r="164" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
@@ -19713,7 +19710,7 @@
       <c r="D164" s="86"/>
       <c r="E164" s="94"/>
       <c r="F164" s="94"/>
-      <c r="G164" s="164"/>
+      <c r="G164" s="163"/>
     </row>
     <row r="165" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
@@ -19728,7 +19725,7 @@
       <c r="D165" s="86"/>
       <c r="E165" s="94"/>
       <c r="F165" s="94"/>
-      <c r="G165" s="164"/>
+      <c r="G165" s="163"/>
     </row>
     <row r="166" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
@@ -19743,7 +19740,7 @@
       <c r="D166" s="47"/>
       <c r="E166" s="94"/>
       <c r="F166" s="94"/>
-      <c r="G166" s="164"/>
+      <c r="G166" s="163"/>
     </row>
     <row r="167" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
@@ -19758,7 +19755,7 @@
       <c r="D167" s="86"/>
       <c r="E167" s="94"/>
       <c r="F167" s="94"/>
-      <c r="G167" s="164"/>
+      <c r="G167" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -19807,8 +19804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260BE2E5-A133-4730-81D1-6815CAD08C5C}">
   <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D228" sqref="D228:D231"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F168" sqref="F168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19835,7 +19832,7 @@
       <c r="E1" s="113" t="s">
         <v>729</v>
       </c>
-      <c r="F1" s="148" t="s">
+      <c r="F1" s="147" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -19843,15 +19840,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
     </row>
     <row r="3" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -20015,15 +20012,15 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="59" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="156" t="s">
+      <c r="A10" s="155" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
     </row>
     <row r="11" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -20041,10 +20038,10 @@
       <c r="E11" s="142" t="s">
         <v>379</v>
       </c>
-      <c r="F11" s="159" t="s">
+      <c r="F11" s="158" t="s">
         <v>508</v>
       </c>
-      <c r="G11" s="159"/>
+      <c r="G11" s="158"/>
     </row>
     <row r="12" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -20062,8 +20059,8 @@
       <c r="E12" s="142" t="s">
         <v>379</v>
       </c>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
     </row>
     <row r="13" spans="1:7" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -20204,15 +20201,15 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="59" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="156" t="s">
+      <c r="A19" s="155" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="156"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
     </row>
     <row r="20" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -20514,15 +20511,15 @@
       </c>
     </row>
     <row r="33" spans="1:7" s="59" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="156" t="s">
+      <c r="A33" s="155" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="156"/>
-      <c r="C33" s="156"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="155"/>
     </row>
     <row r="34" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
@@ -20755,15 +20752,15 @@
       </c>
     </row>
     <row r="44" spans="1:7" s="59" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="156" t="s">
+      <c r="A44" s="155" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="156"/>
-      <c r="C44" s="156"/>
-      <c r="D44" s="156"/>
-      <c r="E44" s="156"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="156"/>
+      <c r="B44" s="155"/>
+      <c r="C44" s="155"/>
+      <c r="D44" s="155"/>
+      <c r="E44" s="155"/>
+      <c r="F44" s="155"/>
+      <c r="G44" s="155"/>
     </row>
     <row r="45" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
@@ -20973,15 +20970,15 @@
       </c>
     </row>
     <row r="54" spans="1:7" s="59" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="156" t="s">
+      <c r="A54" s="155" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="156"/>
-      <c r="C54" s="156"/>
-      <c r="D54" s="156"/>
-      <c r="E54" s="156"/>
-      <c r="F54" s="156"/>
-      <c r="G54" s="156"/>
+      <c r="B54" s="155"/>
+      <c r="C54" s="155"/>
+      <c r="D54" s="155"/>
+      <c r="E54" s="155"/>
+      <c r="F54" s="155"/>
+      <c r="G54" s="155"/>
     </row>
     <row r="55" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
@@ -21168,15 +21165,15 @@
       </c>
     </row>
     <row r="63" spans="1:7" s="59" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="156" t="s">
+      <c r="A63" s="155" t="s">
         <v>160</v>
       </c>
-      <c r="B63" s="156"/>
-      <c r="C63" s="156"/>
-      <c r="D63" s="156"/>
-      <c r="E63" s="156"/>
-      <c r="F63" s="156"/>
-      <c r="G63" s="156"/>
+      <c r="B63" s="155"/>
+      <c r="C63" s="155"/>
+      <c r="D63" s="155"/>
+      <c r="E63" s="155"/>
+      <c r="F63" s="155"/>
+      <c r="G63" s="155"/>
     </row>
     <row r="64" spans="1:7" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
@@ -21294,15 +21291,15 @@
       </c>
     </row>
     <row r="69" spans="1:7" s="59" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="156" t="s">
+      <c r="A69" s="155" t="s">
         <v>161</v>
       </c>
-      <c r="B69" s="156"/>
-      <c r="C69" s="156"/>
-      <c r="D69" s="156"/>
-      <c r="E69" s="156"/>
-      <c r="F69" s="156"/>
-      <c r="G69" s="156"/>
+      <c r="B69" s="155"/>
+      <c r="C69" s="155"/>
+      <c r="D69" s="155"/>
+      <c r="E69" s="155"/>
+      <c r="F69" s="155"/>
+      <c r="G69" s="155"/>
     </row>
     <row r="70" spans="1:7" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
@@ -21581,15 +21578,15 @@
       </c>
     </row>
     <row r="82" spans="1:7" s="59" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="156" t="s">
+      <c r="A82" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="156"/>
-      <c r="C82" s="156"/>
-      <c r="D82" s="156"/>
-      <c r="E82" s="156"/>
-      <c r="F82" s="156"/>
-      <c r="G82" s="156"/>
+      <c r="B82" s="155"/>
+      <c r="C82" s="155"/>
+      <c r="D82" s="155"/>
+      <c r="E82" s="155"/>
+      <c r="F82" s="155"/>
+      <c r="G82" s="155"/>
     </row>
     <row r="83" spans="1:7" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
@@ -21773,15 +21770,15 @@
       </c>
     </row>
     <row r="91" spans="1:7" s="59" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="156" t="s">
+      <c r="A91" s="155" t="s">
         <v>163</v>
       </c>
-      <c r="B91" s="156"/>
-      <c r="C91" s="156"/>
-      <c r="D91" s="156"/>
-      <c r="E91" s="156"/>
-      <c r="F91" s="156"/>
-      <c r="G91" s="156"/>
+      <c r="B91" s="155"/>
+      <c r="C91" s="155"/>
+      <c r="D91" s="155"/>
+      <c r="E91" s="155"/>
+      <c r="F91" s="155"/>
+      <c r="G91" s="155"/>
     </row>
     <row r="92" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
@@ -22014,15 +22011,15 @@
       </c>
     </row>
     <row r="102" spans="1:7" s="59" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="156" t="s">
+      <c r="A102" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="B102" s="156"/>
-      <c r="C102" s="156"/>
-      <c r="D102" s="156"/>
-      <c r="E102" s="156"/>
-      <c r="F102" s="156"/>
-      <c r="G102" s="156"/>
+      <c r="B102" s="155"/>
+      <c r="C102" s="155"/>
+      <c r="D102" s="155"/>
+      <c r="E102" s="155"/>
+      <c r="F102" s="155"/>
+      <c r="G102" s="155"/>
     </row>
     <row r="103" spans="1:7" ht="156.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
@@ -22255,15 +22252,15 @@
       </c>
     </row>
     <row r="113" spans="1:7" s="59" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="156" t="s">
+      <c r="A113" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="B113" s="156"/>
-      <c r="C113" s="156"/>
-      <c r="D113" s="156"/>
-      <c r="E113" s="156"/>
-      <c r="F113" s="156"/>
-      <c r="G113" s="156"/>
+      <c r="B113" s="155"/>
+      <c r="C113" s="155"/>
+      <c r="D113" s="155"/>
+      <c r="E113" s="155"/>
+      <c r="F113" s="155"/>
+      <c r="G113" s="155"/>
     </row>
     <row r="114" spans="1:7" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
@@ -22519,15 +22516,15 @@
       </c>
     </row>
     <row r="125" spans="1:7" s="59" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="156" t="s">
+      <c r="A125" s="155" t="s">
         <v>166</v>
       </c>
-      <c r="B125" s="156"/>
-      <c r="C125" s="156"/>
-      <c r="D125" s="156"/>
-      <c r="E125" s="156"/>
-      <c r="F125" s="156"/>
-      <c r="G125" s="156"/>
+      <c r="B125" s="155"/>
+      <c r="C125" s="155"/>
+      <c r="D125" s="155"/>
+      <c r="E125" s="155"/>
+      <c r="F125" s="155"/>
+      <c r="G125" s="155"/>
     </row>
     <row r="126" spans="1:7" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
@@ -22545,10 +22542,10 @@
       <c r="E126" s="140" t="s">
         <v>379</v>
       </c>
-      <c r="F126" s="161" t="s">
+      <c r="F126" s="160" t="s">
         <v>786</v>
       </c>
-      <c r="G126" s="162" t="s">
+      <c r="G126" s="161" t="s">
         <v>947</v>
       </c>
     </row>
@@ -22568,8 +22565,8 @@
       <c r="E127" s="140" t="s">
         <v>379</v>
       </c>
-      <c r="F127" s="161"/>
-      <c r="G127" s="163"/>
+      <c r="F127" s="160"/>
+      <c r="G127" s="162"/>
     </row>
     <row r="128" spans="1:7" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
@@ -22641,15 +22638,15 @@
       </c>
     </row>
     <row r="131" spans="1:7" s="59" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="156" t="s">
+      <c r="A131" s="155" t="s">
         <v>167</v>
       </c>
-      <c r="B131" s="156"/>
-      <c r="C131" s="156"/>
-      <c r="D131" s="156"/>
-      <c r="E131" s="156"/>
-      <c r="F131" s="156"/>
-      <c r="G131" s="156"/>
+      <c r="B131" s="155"/>
+      <c r="C131" s="155"/>
+      <c r="D131" s="155"/>
+      <c r="E131" s="155"/>
+      <c r="F131" s="155"/>
+      <c r="G131" s="155"/>
     </row>
     <row r="132" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
@@ -22882,15 +22879,15 @@
       </c>
     </row>
     <row r="142" spans="1:7" s="59" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="156" t="s">
+      <c r="A142" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="B142" s="156"/>
-      <c r="C142" s="156"/>
-      <c r="D142" s="156"/>
-      <c r="E142" s="156"/>
-      <c r="F142" s="156"/>
-      <c r="G142" s="156"/>
+      <c r="B142" s="155"/>
+      <c r="C142" s="155"/>
+      <c r="D142" s="155"/>
+      <c r="E142" s="155"/>
+      <c r="F142" s="155"/>
+      <c r="G142" s="155"/>
     </row>
     <row r="143" spans="1:7" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
@@ -22902,7 +22899,7 @@
       <c r="C143" s="8">
         <v>0</v>
       </c>
-      <c r="D143" s="144" t="s">
+      <c r="D143" s="143" t="s">
         <v>377</v>
       </c>
       <c r="E143" s="140" t="s">
@@ -23110,7 +23107,9 @@
       <c r="D152" s="140" t="s">
         <v>379</v>
       </c>
-      <c r="E152" s="143"/>
+      <c r="E152" s="140" t="s">
+        <v>379</v>
+      </c>
       <c r="F152" s="26" t="s">
         <v>320</v>
       </c>
@@ -23165,15 +23164,15 @@
       </c>
     </row>
     <row r="155" spans="1:7" s="59" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="156" t="s">
+      <c r="A155" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="B155" s="156"/>
-      <c r="C155" s="156"/>
-      <c r="D155" s="156"/>
-      <c r="E155" s="156"/>
-      <c r="F155" s="156"/>
-      <c r="G155" s="156"/>
+      <c r="B155" s="155"/>
+      <c r="C155" s="155"/>
+      <c r="D155" s="155"/>
+      <c r="E155" s="155"/>
+      <c r="F155" s="155"/>
+      <c r="G155" s="155"/>
     </row>
     <row r="156" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
@@ -23483,8 +23482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView zoomScale="63" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F4"/>
+    <sheetView topLeftCell="A163" zoomScale="63" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F177" sqref="F177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23510,7 +23509,7 @@
       <c r="E1" s="120" t="s">
         <v>729</v>
       </c>
-      <c r="F1" s="148" t="s">
+      <c r="F1" s="147" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -23518,15 +23517,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
     </row>
     <row r="3" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -23544,10 +23543,10 @@
       <c r="E3" s="121" t="s">
         <v>380</v>
       </c>
-      <c r="F3" s="164" t="s">
+      <c r="F3" s="163" t="s">
         <v>751</v>
       </c>
-      <c r="G3" s="164" t="s">
+      <c r="G3" s="163" t="s">
         <v>750</v>
       </c>
     </row>
@@ -23567,8 +23566,8 @@
       <c r="E4" s="121" t="s">
         <v>380</v>
       </c>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
     </row>
     <row r="5" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -23686,15 +23685,15 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="156" t="s">
+      <c r="A10" s="155" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
     </row>
     <row r="11" spans="1:7" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -23712,10 +23711,10 @@
       <c r="E11" s="73" t="s">
         <v>381</v>
       </c>
-      <c r="F11" s="164" t="s">
+      <c r="F11" s="163" t="s">
         <v>817</v>
       </c>
-      <c r="G11" s="164" t="s">
+      <c r="G11" s="163" t="s">
         <v>388</v>
       </c>
     </row>
@@ -23735,8 +23734,8 @@
       <c r="E12" s="73" t="s">
         <v>381</v>
       </c>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="163"/>
     </row>
     <row r="13" spans="1:7" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -23754,8 +23753,8 @@
       <c r="E13" s="73" t="s">
         <v>381</v>
       </c>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="163"/>
     </row>
     <row r="14" spans="1:7" ht="192" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -23873,15 +23872,15 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="156" t="s">
+      <c r="A19" s="155" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="156"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
     </row>
     <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -24175,15 +24174,15 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="156" t="s">
+      <c r="A33" s="155" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="156"/>
-      <c r="C33" s="156"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="155"/>
     </row>
     <row r="34" spans="1:7" ht="255.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
@@ -24416,15 +24415,15 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="156" t="s">
+      <c r="A44" s="155" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="156"/>
-      <c r="C44" s="156"/>
-      <c r="D44" s="156"/>
-      <c r="E44" s="156"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="156"/>
+      <c r="B44" s="155"/>
+      <c r="C44" s="155"/>
+      <c r="D44" s="155"/>
+      <c r="E44" s="155"/>
+      <c r="F44" s="155"/>
+      <c r="G44" s="155"/>
     </row>
     <row r="45" spans="1:7" ht="189.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
@@ -24634,15 +24633,15 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="156" t="s">
+      <c r="A54" s="155" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="156"/>
-      <c r="C54" s="156"/>
-      <c r="D54" s="156"/>
-      <c r="E54" s="156"/>
-      <c r="F54" s="156"/>
-      <c r="G54" s="156"/>
+      <c r="B54" s="155"/>
+      <c r="C54" s="155"/>
+      <c r="D54" s="155"/>
+      <c r="E54" s="155"/>
+      <c r="F54" s="155"/>
+      <c r="G54" s="155"/>
     </row>
     <row r="55" spans="1:7" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
@@ -24829,15 +24828,15 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="156" t="s">
+      <c r="A63" s="155" t="s">
         <v>160</v>
       </c>
-      <c r="B63" s="156"/>
-      <c r="C63" s="156"/>
-      <c r="D63" s="156"/>
-      <c r="E63" s="156"/>
-      <c r="F63" s="156"/>
-      <c r="G63" s="156"/>
+      <c r="B63" s="155"/>
+      <c r="C63" s="155"/>
+      <c r="D63" s="155"/>
+      <c r="E63" s="155"/>
+      <c r="F63" s="155"/>
+      <c r="G63" s="155"/>
     </row>
     <row r="64" spans="1:7" ht="152.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
@@ -24955,15 +24954,15 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="156" t="s">
+      <c r="A69" s="155" t="s">
         <v>161</v>
       </c>
-      <c r="B69" s="156"/>
-      <c r="C69" s="156"/>
-      <c r="D69" s="156"/>
-      <c r="E69" s="156"/>
-      <c r="F69" s="156"/>
-      <c r="G69" s="156"/>
+      <c r="B69" s="155"/>
+      <c r="C69" s="155"/>
+      <c r="D69" s="155"/>
+      <c r="E69" s="155"/>
+      <c r="F69" s="155"/>
+      <c r="G69" s="155"/>
     </row>
     <row r="70" spans="1:7" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
@@ -24981,10 +24980,10 @@
       <c r="E70" s="73" t="s">
         <v>381</v>
       </c>
-      <c r="F70" s="165" t="s">
+      <c r="F70" s="164" t="s">
         <v>868</v>
       </c>
-      <c r="G70" s="164" t="s">
+      <c r="G70" s="163" t="s">
         <v>406</v>
       </c>
     </row>
@@ -25004,8 +25003,8 @@
       <c r="E71" s="73" t="s">
         <v>381</v>
       </c>
-      <c r="F71" s="165"/>
-      <c r="G71" s="164"/>
+      <c r="F71" s="164"/>
+      <c r="G71" s="163"/>
     </row>
     <row r="72" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
@@ -25089,7 +25088,7 @@
       <c r="D75" s="123" t="s">
         <v>378</v>
       </c>
-      <c r="E75" s="147" t="s">
+      <c r="E75" s="146" t="s">
         <v>380</v>
       </c>
       <c r="F75" s="107" t="s">
@@ -25236,15 +25235,15 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="156" t="s">
+      <c r="A82" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="156"/>
-      <c r="C82" s="156"/>
-      <c r="D82" s="156"/>
-      <c r="E82" s="156"/>
-      <c r="F82" s="156"/>
-      <c r="G82" s="156"/>
+      <c r="B82" s="155"/>
+      <c r="C82" s="155"/>
+      <c r="D82" s="155"/>
+      <c r="E82" s="155"/>
+      <c r="F82" s="155"/>
+      <c r="G82" s="155"/>
     </row>
     <row r="83" spans="1:7" ht="246" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
@@ -25431,15 +25430,15 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="156" t="s">
+      <c r="A91" s="155" t="s">
         <v>163</v>
       </c>
-      <c r="B91" s="156"/>
-      <c r="C91" s="156"/>
-      <c r="D91" s="156"/>
-      <c r="E91" s="156"/>
-      <c r="F91" s="156"/>
-      <c r="G91" s="156"/>
+      <c r="B91" s="155"/>
+      <c r="C91" s="155"/>
+      <c r="D91" s="155"/>
+      <c r="E91" s="155"/>
+      <c r="F91" s="155"/>
+      <c r="G91" s="155"/>
     </row>
     <row r="92" spans="1:7" ht="198.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
@@ -25498,7 +25497,7 @@
       <c r="D94" s="123" t="s">
         <v>378</v>
       </c>
-      <c r="E94" s="147" t="s">
+      <c r="E94" s="146" t="s">
         <v>380</v>
       </c>
       <c r="F94" s="107" t="s">
@@ -25670,15 +25669,15 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="156" t="s">
+      <c r="A102" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="B102" s="156"/>
-      <c r="C102" s="156"/>
-      <c r="D102" s="156"/>
-      <c r="E102" s="156"/>
-      <c r="F102" s="156"/>
-      <c r="G102" s="156"/>
+      <c r="B102" s="155"/>
+      <c r="C102" s="155"/>
+      <c r="D102" s="155"/>
+      <c r="E102" s="155"/>
+      <c r="F102" s="155"/>
+      <c r="G102" s="155"/>
     </row>
     <row r="103" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
@@ -25911,15 +25910,15 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="156" t="s">
+      <c r="A113" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="B113" s="156"/>
-      <c r="C113" s="156"/>
-      <c r="D113" s="156"/>
-      <c r="E113" s="156"/>
-      <c r="F113" s="156"/>
-      <c r="G113" s="156"/>
+      <c r="B113" s="155"/>
+      <c r="C113" s="155"/>
+      <c r="D113" s="155"/>
+      <c r="E113" s="155"/>
+      <c r="F113" s="155"/>
+      <c r="G113" s="155"/>
     </row>
     <row r="114" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
@@ -25937,10 +25936,10 @@
       <c r="E114" s="122" t="s">
         <v>379</v>
       </c>
-      <c r="F114" s="164" t="s">
+      <c r="F114" s="163" t="s">
         <v>419</v>
       </c>
-      <c r="G114" s="164" t="s">
+      <c r="G114" s="163" t="s">
         <v>416</v>
       </c>
     </row>
@@ -25960,8 +25959,8 @@
       <c r="E115" s="122" t="s">
         <v>379</v>
       </c>
-      <c r="F115" s="164"/>
-      <c r="G115" s="164"/>
+      <c r="F115" s="163"/>
+      <c r="G115" s="163"/>
     </row>
     <row r="116" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
@@ -26171,15 +26170,15 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="156" t="s">
+      <c r="A125" s="155" t="s">
         <v>166</v>
       </c>
-      <c r="B125" s="156"/>
-      <c r="C125" s="156"/>
-      <c r="D125" s="156"/>
-      <c r="E125" s="156"/>
-      <c r="F125" s="156"/>
-      <c r="G125" s="156"/>
+      <c r="B125" s="155"/>
+      <c r="C125" s="155"/>
+      <c r="D125" s="155"/>
+      <c r="E125" s="155"/>
+      <c r="F125" s="155"/>
+      <c r="G125" s="155"/>
     </row>
     <row r="126" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
@@ -26197,10 +26196,10 @@
       <c r="E126" s="122" t="s">
         <v>379</v>
       </c>
-      <c r="F126" s="164" t="s">
+      <c r="F126" s="163" t="s">
         <v>960</v>
       </c>
-      <c r="G126" s="164" t="s">
+      <c r="G126" s="163" t="s">
         <v>737</v>
       </c>
     </row>
@@ -26220,8 +26219,8 @@
       <c r="E127" s="122" t="s">
         <v>379</v>
       </c>
-      <c r="F127" s="164"/>
-      <c r="G127" s="164"/>
+      <c r="F127" s="163"/>
+      <c r="G127" s="163"/>
     </row>
     <row r="128" spans="1:7" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
@@ -26293,15 +26292,15 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="156" t="s">
+      <c r="A131" s="155" t="s">
         <v>167</v>
       </c>
-      <c r="B131" s="156"/>
-      <c r="C131" s="156"/>
-      <c r="D131" s="156"/>
-      <c r="E131" s="156"/>
-      <c r="F131" s="156"/>
-      <c r="G131" s="156"/>
+      <c r="B131" s="155"/>
+      <c r="C131" s="155"/>
+      <c r="D131" s="155"/>
+      <c r="E131" s="155"/>
+      <c r="F131" s="155"/>
+      <c r="G131" s="155"/>
     </row>
     <row r="132" spans="1:7" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
@@ -26319,10 +26318,10 @@
       <c r="E132" s="122" t="s">
         <v>379</v>
       </c>
-      <c r="F132" s="164" t="s">
+      <c r="F132" s="163" t="s">
         <v>420</v>
       </c>
-      <c r="G132" s="164" t="s">
+      <c r="G132" s="163" t="s">
         <v>484</v>
       </c>
     </row>
@@ -26342,8 +26341,8 @@
       <c r="E133" s="122" t="s">
         <v>379</v>
       </c>
-      <c r="F133" s="164"/>
-      <c r="G133" s="164"/>
+      <c r="F133" s="163"/>
+      <c r="G133" s="163"/>
     </row>
     <row r="134" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
@@ -26530,15 +26529,15 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="156" t="s">
+      <c r="A142" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="B142" s="156"/>
-      <c r="C142" s="156"/>
-      <c r="D142" s="156"/>
-      <c r="E142" s="156"/>
-      <c r="F142" s="156"/>
-      <c r="G142" s="156"/>
+      <c r="B142" s="155"/>
+      <c r="C142" s="155"/>
+      <c r="D142" s="155"/>
+      <c r="E142" s="155"/>
+      <c r="F142" s="155"/>
+      <c r="G142" s="155"/>
     </row>
     <row r="143" spans="1:7" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
@@ -26763,10 +26762,10 @@
       <c r="E152" s="122" t="s">
         <v>379</v>
       </c>
-      <c r="F152" s="168" t="s">
+      <c r="F152" s="167" t="s">
         <v>411</v>
       </c>
-      <c r="G152" s="168" t="s">
+      <c r="G152" s="167" t="s">
         <v>412</v>
       </c>
     </row>
@@ -26786,8 +26785,8 @@
       <c r="E153" s="122" t="s">
         <v>379</v>
       </c>
-      <c r="F153" s="168"/>
-      <c r="G153" s="168"/>
+      <c r="F153" s="167"/>
+      <c r="G153" s="167"/>
     </row>
     <row r="154" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
@@ -26813,15 +26812,15 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="156" t="s">
+      <c r="A155" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="B155" s="156"/>
-      <c r="C155" s="156"/>
-      <c r="D155" s="156"/>
-      <c r="E155" s="156"/>
-      <c r="F155" s="156"/>
-      <c r="G155" s="156"/>
+      <c r="B155" s="155"/>
+      <c r="C155" s="155"/>
+      <c r="D155" s="155"/>
+      <c r="E155" s="155"/>
+      <c r="F155" s="155"/>
+      <c r="G155" s="155"/>
     </row>
     <row r="156" spans="1:7" ht="183.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
@@ -26839,10 +26838,10 @@
       <c r="E156" s="122" t="s">
         <v>379</v>
       </c>
-      <c r="F156" s="166" t="s">
+      <c r="F156" s="165" t="s">
         <v>431</v>
       </c>
-      <c r="G156" s="166" t="s">
+      <c r="G156" s="165" t="s">
         <v>430</v>
       </c>
     </row>
@@ -26862,8 +26861,8 @@
       <c r="E157" s="122" t="s">
         <v>379</v>
       </c>
-      <c r="F157" s="167"/>
-      <c r="G157" s="167"/>
+      <c r="F157" s="166"/>
+      <c r="G157" s="166"/>
     </row>
     <row r="158" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
@@ -27085,7 +27084,9 @@
       <c r="D167" s="122" t="s">
         <v>379</v>
       </c>
-      <c r="E167" s="122"/>
+      <c r="E167" s="122" t="s">
+        <v>379</v>
+      </c>
       <c r="F167" s="107" t="s">
         <v>320</v>
       </c>
@@ -27146,7 +27147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B0AB70-51CB-49B5-9575-110338C6A390}">
   <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
@@ -27174,7 +27175,7 @@
       <c r="E1" s="113" t="s">
         <v>729</v>
       </c>
-      <c r="F1" s="148" t="s">
+      <c r="F1" s="147" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -27182,15 +27183,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
     </row>
     <row r="3" spans="1:7" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -27208,10 +27209,10 @@
       <c r="E3" s="45" t="s">
         <v>380</v>
       </c>
-      <c r="F3" s="164" t="s">
+      <c r="F3" s="163" t="s">
         <v>794</v>
       </c>
-      <c r="G3" s="164" t="s">
+      <c r="G3" s="163" t="s">
         <v>793</v>
       </c>
     </row>
@@ -27231,8 +27232,8 @@
       <c r="E4" s="45" t="s">
         <v>380</v>
       </c>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
     </row>
     <row r="5" spans="1:7" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -27350,15 +27351,15 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="156" t="s">
+      <c r="A10" s="155" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
     </row>
     <row r="11" spans="1:7" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -27376,10 +27377,10 @@
       <c r="E11" s="47" t="s">
         <v>381</v>
       </c>
-      <c r="F11" s="164" t="s">
+      <c r="F11" s="163" t="s">
         <v>820</v>
       </c>
-      <c r="G11" s="164" t="s">
+      <c r="G11" s="163" t="s">
         <v>821</v>
       </c>
     </row>
@@ -27399,8 +27400,8 @@
       <c r="E12" s="47" t="s">
         <v>381</v>
       </c>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="163"/>
     </row>
     <row r="13" spans="1:7" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -27418,8 +27419,8 @@
       <c r="E13" s="47" t="s">
         <v>381</v>
       </c>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="163"/>
     </row>
     <row r="14" spans="1:7" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -27537,15 +27538,15 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="156" t="s">
+      <c r="A19" s="155" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="156"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
     </row>
     <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -27609,7 +27610,7 @@
       <c r="E22" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="F22" s="151" t="s">
+      <c r="F22" s="150" t="s">
         <v>752</v>
       </c>
       <c r="G22" s="104" t="s">
@@ -27845,15 +27846,15 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="156" t="s">
+      <c r="A33" s="155" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="156"/>
-      <c r="C33" s="156"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="155"/>
     </row>
     <row r="34" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
@@ -28086,15 +28087,15 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="156" t="s">
+      <c r="A44" s="155" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="156"/>
-      <c r="C44" s="156"/>
-      <c r="D44" s="156"/>
-      <c r="E44" s="156"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="156"/>
+      <c r="B44" s="155"/>
+      <c r="C44" s="155"/>
+      <c r="D44" s="155"/>
+      <c r="E44" s="155"/>
+      <c r="F44" s="155"/>
+      <c r="G44" s="155"/>
     </row>
     <row r="45" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
@@ -28304,15 +28305,15 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="156" t="s">
+      <c r="A54" s="155" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="156"/>
-      <c r="C54" s="156"/>
-      <c r="D54" s="156"/>
-      <c r="E54" s="156"/>
-      <c r="F54" s="156"/>
-      <c r="G54" s="156"/>
+      <c r="B54" s="155"/>
+      <c r="C54" s="155"/>
+      <c r="D54" s="155"/>
+      <c r="E54" s="155"/>
+      <c r="F54" s="155"/>
+      <c r="G54" s="155"/>
     </row>
     <row r="55" spans="1:7" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
@@ -28399,10 +28400,10 @@
       <c r="E58" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="F58" s="145" t="s">
+      <c r="F58" s="144" t="s">
         <v>611</v>
       </c>
-      <c r="G58" s="145" t="s">
+      <c r="G58" s="144" t="s">
         <v>611</v>
       </c>
     </row>
@@ -28499,15 +28500,15 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="156" t="s">
+      <c r="A63" s="155" t="s">
         <v>160</v>
       </c>
-      <c r="B63" s="156"/>
-      <c r="C63" s="156"/>
-      <c r="D63" s="156"/>
-      <c r="E63" s="156"/>
-      <c r="F63" s="156"/>
-      <c r="G63" s="156"/>
+      <c r="B63" s="155"/>
+      <c r="C63" s="155"/>
+      <c r="D63" s="155"/>
+      <c r="E63" s="155"/>
+      <c r="F63" s="155"/>
+      <c r="G63" s="155"/>
     </row>
     <row r="64" spans="1:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
@@ -28525,10 +28526,10 @@
       <c r="E64" s="45" t="s">
         <v>380</v>
       </c>
-      <c r="F64" s="164" t="s">
+      <c r="F64" s="163" t="s">
         <v>867</v>
       </c>
-      <c r="G64" s="164" t="s">
+      <c r="G64" s="163" t="s">
         <v>564</v>
       </c>
     </row>
@@ -28548,8 +28549,8 @@
       <c r="E65" s="45" t="s">
         <v>380</v>
       </c>
-      <c r="F65" s="164"/>
-      <c r="G65" s="164"/>
+      <c r="F65" s="163"/>
+      <c r="G65" s="163"/>
     </row>
     <row r="66" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
@@ -28621,15 +28622,15 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="156" t="s">
+      <c r="A69" s="155" t="s">
         <v>161</v>
       </c>
-      <c r="B69" s="156"/>
-      <c r="C69" s="156"/>
-      <c r="D69" s="156"/>
-      <c r="E69" s="156"/>
-      <c r="F69" s="156"/>
-      <c r="G69" s="156"/>
+      <c r="B69" s="155"/>
+      <c r="C69" s="155"/>
+      <c r="D69" s="155"/>
+      <c r="E69" s="155"/>
+      <c r="F69" s="155"/>
+      <c r="G69" s="155"/>
     </row>
     <row r="70" spans="1:7" ht="158.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
@@ -28647,10 +28648,10 @@
       <c r="E70" s="47" t="s">
         <v>381</v>
       </c>
-      <c r="F70" s="164" t="s">
+      <c r="F70" s="163" t="s">
         <v>869</v>
       </c>
-      <c r="G70" s="164" t="s">
+      <c r="G70" s="163" t="s">
         <v>566</v>
       </c>
     </row>
@@ -28670,8 +28671,8 @@
       <c r="E71" s="47" t="s">
         <v>381</v>
       </c>
-      <c r="F71" s="164"/>
-      <c r="G71" s="164"/>
+      <c r="F71" s="163"/>
+      <c r="G71" s="163"/>
     </row>
     <row r="72" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
@@ -28904,15 +28905,15 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="156" t="s">
+      <c r="A82" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="156"/>
-      <c r="C82" s="156"/>
-      <c r="D82" s="156"/>
-      <c r="E82" s="156"/>
-      <c r="F82" s="156"/>
-      <c r="G82" s="156"/>
+      <c r="B82" s="155"/>
+      <c r="C82" s="155"/>
+      <c r="D82" s="155"/>
+      <c r="E82" s="155"/>
+      <c r="F82" s="155"/>
+      <c r="G82" s="155"/>
     </row>
     <row r="83" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
@@ -29022,7 +29023,7 @@
       <c r="E87" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="F87" s="152" t="s">
+      <c r="F87" s="151" t="s">
         <v>889</v>
       </c>
       <c r="G87" s="104" t="s">
@@ -29099,15 +29100,15 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="156" t="s">
+      <c r="A91" s="155" t="s">
         <v>163</v>
       </c>
-      <c r="B91" s="156"/>
-      <c r="C91" s="156"/>
-      <c r="D91" s="156"/>
-      <c r="E91" s="156"/>
-      <c r="F91" s="156"/>
-      <c r="G91" s="156"/>
+      <c r="B91" s="155"/>
+      <c r="C91" s="155"/>
+      <c r="D91" s="155"/>
+      <c r="E91" s="155"/>
+      <c r="F91" s="155"/>
+      <c r="G91" s="155"/>
     </row>
     <row r="92" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
@@ -29340,15 +29341,15 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="156" t="s">
+      <c r="A102" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="B102" s="156"/>
-      <c r="C102" s="156"/>
-      <c r="D102" s="156"/>
-      <c r="E102" s="156"/>
-      <c r="F102" s="156"/>
-      <c r="G102" s="156"/>
+      <c r="B102" s="155"/>
+      <c r="C102" s="155"/>
+      <c r="D102" s="155"/>
+      <c r="E102" s="155"/>
+      <c r="F102" s="155"/>
+      <c r="G102" s="155"/>
     </row>
     <row r="103" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
@@ -29581,15 +29582,15 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="156" t="s">
+      <c r="A113" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="B113" s="156"/>
-      <c r="C113" s="156"/>
-      <c r="D113" s="156"/>
-      <c r="E113" s="156"/>
-      <c r="F113" s="156"/>
-      <c r="G113" s="156"/>
+      <c r="B113" s="155"/>
+      <c r="C113" s="155"/>
+      <c r="D113" s="155"/>
+      <c r="E113" s="155"/>
+      <c r="F113" s="155"/>
+      <c r="G113" s="155"/>
     </row>
     <row r="114" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
@@ -29607,10 +29608,10 @@
       <c r="E114" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="F114" s="170" t="s">
+      <c r="F114" s="169" t="s">
         <v>570</v>
       </c>
-      <c r="G114" s="161" t="s">
+      <c r="G114" s="160" t="s">
         <v>571</v>
       </c>
     </row>
@@ -29630,8 +29631,8 @@
       <c r="E115" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="F115" s="170"/>
-      <c r="G115" s="161"/>
+      <c r="F115" s="169"/>
+      <c r="G115" s="160"/>
     </row>
     <row r="116" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
@@ -29841,15 +29842,15 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="156" t="s">
+      <c r="A125" s="155" t="s">
         <v>166</v>
       </c>
-      <c r="B125" s="156"/>
-      <c r="C125" s="156"/>
-      <c r="D125" s="156"/>
-      <c r="E125" s="156"/>
-      <c r="F125" s="156"/>
-      <c r="G125" s="156"/>
+      <c r="B125" s="155"/>
+      <c r="C125" s="155"/>
+      <c r="D125" s="155"/>
+      <c r="E125" s="155"/>
+      <c r="F125" s="155"/>
+      <c r="G125" s="155"/>
     </row>
     <row r="126" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
@@ -29867,10 +29868,10 @@
       <c r="E126" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="F126" s="161" t="s">
+      <c r="F126" s="160" t="s">
         <v>732</v>
       </c>
-      <c r="G126" s="162" t="s">
+      <c r="G126" s="161" t="s">
         <v>734</v>
       </c>
     </row>
@@ -29890,8 +29891,8 @@
       <c r="E127" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="F127" s="161"/>
-      <c r="G127" s="163"/>
+      <c r="F127" s="160"/>
+      <c r="G127" s="162"/>
     </row>
     <row r="128" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
@@ -29909,7 +29910,7 @@
       <c r="E128" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="F128" s="152" t="s">
+      <c r="F128" s="151" t="s">
         <v>544</v>
       </c>
       <c r="G128" s="105"/>
@@ -29961,15 +29962,15 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="156" t="s">
+      <c r="A131" s="155" t="s">
         <v>167</v>
       </c>
-      <c r="B131" s="156"/>
-      <c r="C131" s="156"/>
-      <c r="D131" s="156"/>
-      <c r="E131" s="156"/>
-      <c r="F131" s="156"/>
-      <c r="G131" s="156"/>
+      <c r="B131" s="155"/>
+      <c r="C131" s="155"/>
+      <c r="D131" s="155"/>
+      <c r="E131" s="155"/>
+      <c r="F131" s="155"/>
+      <c r="G131" s="155"/>
     </row>
     <row r="132" spans="1:7" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
@@ -29987,10 +29988,10 @@
       <c r="E132" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="F132" s="161" t="s">
+      <c r="F132" s="160" t="s">
         <v>924</v>
       </c>
-      <c r="G132" s="161" t="s">
+      <c r="G132" s="160" t="s">
         <v>572</v>
       </c>
     </row>
@@ -30010,8 +30011,8 @@
       <c r="E133" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="F133" s="161"/>
-      <c r="G133" s="161"/>
+      <c r="F133" s="160"/>
+      <c r="G133" s="160"/>
     </row>
     <row r="134" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
@@ -30029,8 +30030,8 @@
       <c r="E134" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="F134" s="161"/>
-      <c r="G134" s="161"/>
+      <c r="F134" s="160"/>
+      <c r="G134" s="160"/>
     </row>
     <row r="135" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
@@ -30194,15 +30195,15 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="156" t="s">
+      <c r="A142" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="B142" s="156"/>
-      <c r="C142" s="156"/>
-      <c r="D142" s="156"/>
-      <c r="E142" s="156"/>
-      <c r="F142" s="156"/>
-      <c r="G142" s="156"/>
+      <c r="B142" s="155"/>
+      <c r="C142" s="155"/>
+      <c r="D142" s="155"/>
+      <c r="E142" s="155"/>
+      <c r="F142" s="155"/>
+      <c r="G142" s="155"/>
     </row>
     <row r="143" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
@@ -30223,7 +30224,7 @@
       <c r="F143" s="104" t="s">
         <v>336</v>
       </c>
-      <c r="G143" s="164" t="s">
+      <c r="G143" s="163" t="s">
         <v>424</v>
       </c>
     </row>
@@ -30246,7 +30247,7 @@
       <c r="F144" s="104" t="s">
         <v>573</v>
       </c>
-      <c r="G144" s="164"/>
+      <c r="G144" s="163"/>
     </row>
     <row r="145" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
@@ -30423,10 +30424,10 @@
       <c r="E152" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="F152" s="169" t="s">
+      <c r="F152" s="168" t="s">
         <v>943</v>
       </c>
-      <c r="G152" s="169" t="s">
+      <c r="G152" s="168" t="s">
         <v>477</v>
       </c>
     </row>
@@ -30446,8 +30447,8 @@
       <c r="E153" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="F153" s="169"/>
-      <c r="G153" s="169"/>
+      <c r="F153" s="168"/>
+      <c r="G153" s="168"/>
     </row>
     <row r="154" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
@@ -30473,15 +30474,15 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="156" t="s">
+      <c r="A155" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="B155" s="156"/>
-      <c r="C155" s="156"/>
-      <c r="D155" s="156"/>
-      <c r="E155" s="156"/>
-      <c r="F155" s="156"/>
-      <c r="G155" s="156"/>
+      <c r="B155" s="155"/>
+      <c r="C155" s="155"/>
+      <c r="D155" s="155"/>
+      <c r="E155" s="155"/>
+      <c r="F155" s="155"/>
+      <c r="G155" s="155"/>
     </row>
     <row r="156" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
@@ -30831,7 +30832,7 @@
       <c r="E1" s="113" t="s">
         <v>729</v>
       </c>
-      <c r="F1" s="148" t="s">
+      <c r="F1" s="147" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -30839,15 +30840,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
     </row>
     <row r="3" spans="1:7" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -30865,10 +30866,10 @@
       <c r="E3" s="121" t="s">
         <v>380</v>
       </c>
-      <c r="F3" s="164" t="s">
+      <c r="F3" s="163" t="s">
         <v>792</v>
       </c>
-      <c r="G3" s="166" t="s">
+      <c r="G3" s="165" t="s">
         <v>606</v>
       </c>
     </row>
@@ -30888,8 +30889,8 @@
       <c r="E4" s="121" t="s">
         <v>380</v>
       </c>
-      <c r="F4" s="164"/>
-      <c r="G4" s="167"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="166"/>
     </row>
     <row r="5" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -31007,15 +31008,15 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="156" t="s">
+      <c r="A10" s="155" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
     </row>
     <row r="11" spans="1:7" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -31033,10 +31034,10 @@
       <c r="E11" s="47" t="s">
         <v>381</v>
       </c>
-      <c r="F11" s="166" t="s">
+      <c r="F11" s="165" t="s">
         <v>822</v>
       </c>
-      <c r="G11" s="166" t="s">
+      <c r="G11" s="165" t="s">
         <v>756</v>
       </c>
     </row>
@@ -31056,8 +31057,8 @@
       <c r="E12" s="47" t="s">
         <v>381</v>
       </c>
-      <c r="F12" s="172"/>
-      <c r="G12" s="172"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="171"/>
     </row>
     <row r="13" spans="1:7" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -31075,8 +31076,8 @@
       <c r="E13" s="47" t="s">
         <v>381</v>
       </c>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="166"/>
     </row>
     <row r="14" spans="1:7" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -31194,15 +31195,15 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="156" t="s">
+      <c r="A19" s="155" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="156"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
     </row>
     <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -31289,7 +31290,7 @@
       <c r="E23" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="F23" s="152" t="s">
+      <c r="F23" s="151" t="s">
         <v>338</v>
       </c>
       <c r="G23" s="72"/>
@@ -31502,15 +31503,15 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="156" t="s">
+      <c r="A33" s="155" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="156"/>
-      <c r="C33" s="156"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="155"/>
     </row>
     <row r="34" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
@@ -31743,15 +31744,15 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="156" t="s">
+      <c r="A44" s="155" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="156"/>
-      <c r="C44" s="156"/>
-      <c r="D44" s="156"/>
-      <c r="E44" s="156"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="156"/>
+      <c r="B44" s="155"/>
+      <c r="C44" s="155"/>
+      <c r="D44" s="155"/>
+      <c r="E44" s="155"/>
+      <c r="F44" s="155"/>
+      <c r="G44" s="155"/>
     </row>
     <row r="45" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
@@ -31961,15 +31962,15 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="156" t="s">
+      <c r="A54" s="155" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="156"/>
-      <c r="C54" s="156"/>
-      <c r="D54" s="156"/>
-      <c r="E54" s="156"/>
-      <c r="F54" s="156"/>
-      <c r="G54" s="156"/>
+      <c r="B54" s="155"/>
+      <c r="C54" s="155"/>
+      <c r="D54" s="155"/>
+      <c r="E54" s="155"/>
+      <c r="F54" s="155"/>
+      <c r="G54" s="155"/>
     </row>
     <row r="55" spans="1:7" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
@@ -32148,15 +32149,15 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="156" t="s">
+      <c r="A63" s="155" t="s">
         <v>160</v>
       </c>
-      <c r="B63" s="156"/>
-      <c r="C63" s="156"/>
-      <c r="D63" s="156"/>
-      <c r="E63" s="156"/>
-      <c r="F63" s="156"/>
-      <c r="G63" s="156"/>
+      <c r="B63" s="155"/>
+      <c r="C63" s="155"/>
+      <c r="D63" s="155"/>
+      <c r="E63" s="155"/>
+      <c r="F63" s="155"/>
+      <c r="G63" s="155"/>
     </row>
     <row r="64" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
@@ -32274,15 +32275,15 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="156" t="s">
+      <c r="A69" s="155" t="s">
         <v>161</v>
       </c>
-      <c r="B69" s="156"/>
-      <c r="C69" s="156"/>
-      <c r="D69" s="156"/>
-      <c r="E69" s="156"/>
-      <c r="F69" s="156"/>
-      <c r="G69" s="156"/>
+      <c r="B69" s="155"/>
+      <c r="C69" s="155"/>
+      <c r="D69" s="155"/>
+      <c r="E69" s="155"/>
+      <c r="F69" s="155"/>
+      <c r="G69" s="155"/>
     </row>
     <row r="70" spans="1:7" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
@@ -32300,10 +32301,10 @@
       <c r="E70" s="121" t="s">
         <v>380</v>
       </c>
-      <c r="F70" s="166" t="s">
+      <c r="F70" s="165" t="s">
         <v>755</v>
       </c>
-      <c r="G70" s="162" t="s">
+      <c r="G70" s="161" t="s">
         <v>614</v>
       </c>
     </row>
@@ -32323,8 +32324,8 @@
       <c r="E71" s="121" t="s">
         <v>380</v>
       </c>
-      <c r="F71" s="167"/>
-      <c r="G71" s="173"/>
+      <c r="F71" s="166"/>
+      <c r="G71" s="172"/>
     </row>
     <row r="72" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
@@ -32557,15 +32558,15 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="156" t="s">
+      <c r="A82" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="156"/>
-      <c r="C82" s="156"/>
-      <c r="D82" s="156"/>
-      <c r="E82" s="156"/>
-      <c r="F82" s="156"/>
-      <c r="G82" s="156"/>
+      <c r="B82" s="155"/>
+      <c r="C82" s="155"/>
+      <c r="D82" s="155"/>
+      <c r="E82" s="155"/>
+      <c r="F82" s="155"/>
+      <c r="G82" s="155"/>
     </row>
     <row r="83" spans="1:7" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
@@ -32675,7 +32676,7 @@
       <c r="E87" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="F87" s="152" t="s">
+      <c r="F87" s="151" t="s">
         <v>888</v>
       </c>
       <c r="G87" s="72" t="s">
@@ -32752,15 +32753,15 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="156" t="s">
+      <c r="A91" s="155" t="s">
         <v>163</v>
       </c>
-      <c r="B91" s="156"/>
-      <c r="C91" s="156"/>
-      <c r="D91" s="156"/>
-      <c r="E91" s="156"/>
-      <c r="F91" s="156"/>
-      <c r="G91" s="156"/>
+      <c r="B91" s="155"/>
+      <c r="C91" s="155"/>
+      <c r="D91" s="155"/>
+      <c r="E91" s="155"/>
+      <c r="F91" s="155"/>
+      <c r="G91" s="155"/>
     </row>
     <row r="92" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
@@ -32848,7 +32849,7 @@
         <v>379</v>
       </c>
       <c r="F95" s="42"/>
-      <c r="G95" s="146"/>
+      <c r="G95" s="145"/>
     </row>
     <row r="96" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
@@ -32989,15 +32990,15 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="156" t="s">
+      <c r="A102" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="B102" s="156"/>
-      <c r="C102" s="156"/>
-      <c r="D102" s="156"/>
-      <c r="E102" s="156"/>
-      <c r="F102" s="156"/>
-      <c r="G102" s="156"/>
+      <c r="B102" s="155"/>
+      <c r="C102" s="155"/>
+      <c r="D102" s="155"/>
+      <c r="E102" s="155"/>
+      <c r="F102" s="155"/>
+      <c r="G102" s="155"/>
     </row>
     <row r="103" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
@@ -33230,15 +33231,15 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="156" t="s">
+      <c r="A113" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="B113" s="156"/>
-      <c r="C113" s="156"/>
-      <c r="D113" s="156"/>
-      <c r="E113" s="156"/>
-      <c r="F113" s="156"/>
-      <c r="G113" s="156"/>
+      <c r="B113" s="155"/>
+      <c r="C113" s="155"/>
+      <c r="D113" s="155"/>
+      <c r="E113" s="155"/>
+      <c r="F113" s="155"/>
+      <c r="G113" s="155"/>
     </row>
     <row r="114" spans="1:7" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
@@ -33417,7 +33418,7 @@
       <c r="E121" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="F121" s="155" t="s">
+      <c r="F121" s="154" t="s">
         <v>544</v>
       </c>
       <c r="G121" s="111" t="s">
@@ -33494,15 +33495,15 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="156" t="s">
+      <c r="A125" s="155" t="s">
         <v>166</v>
       </c>
-      <c r="B125" s="156"/>
-      <c r="C125" s="156"/>
-      <c r="D125" s="156"/>
-      <c r="E125" s="156"/>
-      <c r="F125" s="156"/>
-      <c r="G125" s="156"/>
+      <c r="B125" s="155"/>
+      <c r="C125" s="155"/>
+      <c r="D125" s="155"/>
+      <c r="E125" s="155"/>
+      <c r="F125" s="155"/>
+      <c r="G125" s="155"/>
     </row>
     <row r="126" spans="1:7" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
@@ -33520,10 +33521,10 @@
       <c r="E126" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="F126" s="161" t="s">
+      <c r="F126" s="160" t="s">
         <v>735</v>
       </c>
-      <c r="G126" s="162" t="s">
+      <c r="G126" s="161" t="s">
         <v>736</v>
       </c>
     </row>
@@ -33543,8 +33544,8 @@
       <c r="E127" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="F127" s="161"/>
-      <c r="G127" s="163"/>
+      <c r="F127" s="160"/>
+      <c r="G127" s="162"/>
     </row>
     <row r="128" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
@@ -33562,7 +33563,7 @@
       <c r="E128" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="F128" s="152" t="s">
+      <c r="F128" s="151" t="s">
         <v>544</v>
       </c>
       <c r="G128" s="105"/>
@@ -33614,15 +33615,15 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="156" t="s">
+      <c r="A131" s="155" t="s">
         <v>167</v>
       </c>
-      <c r="B131" s="156"/>
-      <c r="C131" s="156"/>
-      <c r="D131" s="156"/>
-      <c r="E131" s="156"/>
-      <c r="F131" s="156"/>
-      <c r="G131" s="156"/>
+      <c r="B131" s="155"/>
+      <c r="C131" s="155"/>
+      <c r="D131" s="155"/>
+      <c r="E131" s="155"/>
+      <c r="F131" s="155"/>
+      <c r="G131" s="155"/>
     </row>
     <row r="132" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
@@ -33640,10 +33641,10 @@
       <c r="E132" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="F132" s="161" t="s">
+      <c r="F132" s="160" t="s">
         <v>620</v>
       </c>
-      <c r="G132" s="162" t="s">
+      <c r="G132" s="161" t="s">
         <v>622</v>
       </c>
     </row>
@@ -33663,8 +33664,8 @@
       <c r="E133" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="F133" s="161"/>
-      <c r="G133" s="163"/>
+      <c r="F133" s="160"/>
+      <c r="G133" s="162"/>
     </row>
     <row r="134" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
@@ -33851,15 +33852,15 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="156" t="s">
+      <c r="A142" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="B142" s="156"/>
-      <c r="C142" s="156"/>
-      <c r="D142" s="156"/>
-      <c r="E142" s="156"/>
-      <c r="F142" s="156"/>
-      <c r="G142" s="156"/>
+      <c r="B142" s="155"/>
+      <c r="C142" s="155"/>
+      <c r="D142" s="155"/>
+      <c r="E142" s="155"/>
+      <c r="F142" s="155"/>
+      <c r="G142" s="155"/>
     </row>
     <row r="143" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
@@ -34138,15 +34139,15 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="156" t="s">
+      <c r="A155" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="B155" s="156"/>
-      <c r="C155" s="156"/>
-      <c r="D155" s="156"/>
-      <c r="E155" s="156"/>
-      <c r="F155" s="156"/>
-      <c r="G155" s="156"/>
+      <c r="B155" s="155"/>
+      <c r="C155" s="155"/>
+      <c r="D155" s="155"/>
+      <c r="E155" s="155"/>
+      <c r="F155" s="155"/>
+      <c r="G155" s="155"/>
     </row>
     <row r="156" spans="1:7" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
@@ -34233,10 +34234,10 @@
       <c r="E159" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="F159" s="171" t="s">
+      <c r="F159" s="170" t="s">
         <v>339</v>
       </c>
-      <c r="G159" s="159" t="s">
+      <c r="G159" s="158" t="s">
         <v>634</v>
       </c>
     </row>
@@ -34256,8 +34257,8 @@
       <c r="E160" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="F160" s="171"/>
-      <c r="G160" s="160"/>
+      <c r="F160" s="170"/>
+      <c r="G160" s="159"/>
     </row>
     <row r="161" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
@@ -34488,7 +34489,7 @@
       <c r="E1" s="120" t="s">
         <v>729</v>
       </c>
-      <c r="F1" s="148" t="s">
+      <c r="F1" s="147" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -34496,15 +34497,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
     </row>
     <row r="3" spans="1:7" ht="262.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -34668,15 +34669,15 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="156" t="s">
+      <c r="A10" s="155" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
     </row>
     <row r="11" spans="1:7" ht="192.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -34694,10 +34695,10 @@
       <c r="E11" s="121" t="s">
         <v>380</v>
       </c>
-      <c r="F11" s="164" t="s">
+      <c r="F11" s="163" t="s">
         <v>825</v>
       </c>
-      <c r="G11" s="164" t="s">
+      <c r="G11" s="163" t="s">
         <v>823</v>
       </c>
     </row>
@@ -34717,8 +34718,8 @@
       <c r="E12" s="121" t="s">
         <v>380</v>
       </c>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="163"/>
     </row>
     <row r="13" spans="1:7" ht="168" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -34859,15 +34860,15 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="156" t="s">
+      <c r="A19" s="155" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="156"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
     </row>
     <row r="20" spans="1:7" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -34885,10 +34886,10 @@
       <c r="E20" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="F20" s="161" t="s">
+      <c r="F20" s="160" t="s">
         <v>841</v>
       </c>
-      <c r="G20" s="161" t="s">
+      <c r="G20" s="160" t="s">
         <v>840</v>
       </c>
     </row>
@@ -34908,8 +34909,8 @@
       <c r="E21" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
     </row>
     <row r="22" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -35163,15 +35164,15 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="156" t="s">
+      <c r="A33" s="155" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="156"/>
-      <c r="C33" s="156"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="155"/>
     </row>
     <row r="34" spans="1:7" ht="174.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
@@ -35404,15 +35405,15 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="156" t="s">
+      <c r="A44" s="155" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="156"/>
-      <c r="C44" s="156"/>
-      <c r="D44" s="156"/>
-      <c r="E44" s="156"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="156"/>
+      <c r="B44" s="155"/>
+      <c r="C44" s="155"/>
+      <c r="D44" s="155"/>
+      <c r="E44" s="155"/>
+      <c r="F44" s="155"/>
+      <c r="G44" s="155"/>
     </row>
     <row r="45" spans="1:7" ht="213" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
@@ -35622,15 +35623,15 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="156" t="s">
+      <c r="A54" s="155" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="156"/>
-      <c r="C54" s="156"/>
-      <c r="D54" s="156"/>
-      <c r="E54" s="156"/>
-      <c r="F54" s="156"/>
-      <c r="G54" s="156"/>
+      <c r="B54" s="155"/>
+      <c r="C54" s="155"/>
+      <c r="D54" s="155"/>
+      <c r="E54" s="155"/>
+      <c r="F54" s="155"/>
+      <c r="G54" s="155"/>
     </row>
     <row r="55" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
@@ -35671,10 +35672,10 @@
       <c r="E56" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="F56" s="164" t="s">
+      <c r="F56" s="163" t="s">
         <v>863</v>
       </c>
-      <c r="G56" s="164" t="s">
+      <c r="G56" s="163" t="s">
         <v>482</v>
       </c>
     </row>
@@ -35694,8 +35695,8 @@
       <c r="E57" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="F57" s="164"/>
-      <c r="G57" s="164"/>
+      <c r="F57" s="163"/>
+      <c r="G57" s="163"/>
     </row>
     <row r="58" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
@@ -35813,15 +35814,15 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="156" t="s">
+      <c r="A63" s="155" t="s">
         <v>160</v>
       </c>
-      <c r="B63" s="156"/>
-      <c r="C63" s="156"/>
-      <c r="D63" s="156"/>
-      <c r="E63" s="156"/>
-      <c r="F63" s="156"/>
-      <c r="G63" s="156"/>
+      <c r="B63" s="155"/>
+      <c r="C63" s="155"/>
+      <c r="D63" s="155"/>
+      <c r="E63" s="155"/>
+      <c r="F63" s="155"/>
+      <c r="G63" s="155"/>
     </row>
     <row r="64" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
@@ -35939,15 +35940,15 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="156" t="s">
+      <c r="A69" s="155" t="s">
         <v>161</v>
       </c>
-      <c r="B69" s="156"/>
-      <c r="C69" s="156"/>
-      <c r="D69" s="156"/>
-      <c r="E69" s="156"/>
-      <c r="F69" s="156"/>
-      <c r="G69" s="156"/>
+      <c r="B69" s="155"/>
+      <c r="C69" s="155"/>
+      <c r="D69" s="155"/>
+      <c r="E69" s="155"/>
+      <c r="F69" s="155"/>
+      <c r="G69" s="155"/>
     </row>
     <row r="70" spans="1:7" ht="187.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
@@ -35965,10 +35966,10 @@
       <c r="E70" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="F70" s="164" t="s">
+      <c r="F70" s="163" t="s">
         <v>875</v>
       </c>
-      <c r="G70" s="164" t="s">
+      <c r="G70" s="163" t="s">
         <v>876</v>
       </c>
     </row>
@@ -35988,8 +35989,8 @@
       <c r="E71" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="F71" s="164"/>
-      <c r="G71" s="164"/>
+      <c r="F71" s="163"/>
+      <c r="G71" s="163"/>
     </row>
     <row r="72" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
@@ -36053,10 +36054,10 @@
       <c r="E74" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="F74" s="161" t="s">
+      <c r="F74" s="160" t="s">
         <v>878</v>
       </c>
-      <c r="G74" s="161" t="s">
+      <c r="G74" s="160" t="s">
         <v>485</v>
       </c>
     </row>
@@ -36076,8 +36077,8 @@
       <c r="E75" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="F75" s="161"/>
-      <c r="G75" s="161"/>
+      <c r="F75" s="160"/>
+      <c r="G75" s="160"/>
     </row>
     <row r="76" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
@@ -36218,15 +36219,15 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="156" t="s">
+      <c r="A82" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="156"/>
-      <c r="C82" s="156"/>
-      <c r="D82" s="156"/>
-      <c r="E82" s="156"/>
-      <c r="F82" s="156"/>
-      <c r="G82" s="156"/>
+      <c r="B82" s="155"/>
+      <c r="C82" s="155"/>
+      <c r="D82" s="155"/>
+      <c r="E82" s="155"/>
+      <c r="F82" s="155"/>
+      <c r="G82" s="155"/>
     </row>
     <row r="83" spans="1:7" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
@@ -36413,15 +36414,15 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="156" t="s">
+      <c r="A91" s="155" t="s">
         <v>163</v>
       </c>
-      <c r="B91" s="156"/>
-      <c r="C91" s="156"/>
-      <c r="D91" s="156"/>
-      <c r="E91" s="156"/>
-      <c r="F91" s="156"/>
-      <c r="G91" s="156"/>
+      <c r="B91" s="155"/>
+      <c r="C91" s="155"/>
+      <c r="D91" s="155"/>
+      <c r="E91" s="155"/>
+      <c r="F91" s="155"/>
+      <c r="G91" s="155"/>
     </row>
     <row r="92" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
@@ -36462,10 +36463,10 @@
       <c r="E93" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="F93" s="162" t="s">
+      <c r="F93" s="161" t="s">
         <v>764</v>
       </c>
-      <c r="G93" s="162" t="s">
+      <c r="G93" s="161" t="s">
         <v>761</v>
       </c>
     </row>
@@ -36485,8 +36486,8 @@
       <c r="E94" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="F94" s="163"/>
-      <c r="G94" s="163"/>
+      <c r="F94" s="162"/>
+      <c r="G94" s="162"/>
     </row>
     <row r="95" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
@@ -36650,15 +36651,15 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="156" t="s">
+      <c r="A102" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="B102" s="156"/>
-      <c r="C102" s="156"/>
-      <c r="D102" s="156"/>
-      <c r="E102" s="156"/>
-      <c r="F102" s="156"/>
-      <c r="G102" s="156"/>
+      <c r="B102" s="155"/>
+      <c r="C102" s="155"/>
+      <c r="D102" s="155"/>
+      <c r="E102" s="155"/>
+      <c r="F102" s="155"/>
+      <c r="G102" s="155"/>
     </row>
     <row r="103" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
@@ -36891,15 +36892,15 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="156" t="s">
+      <c r="A113" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="B113" s="156"/>
-      <c r="C113" s="156"/>
-      <c r="D113" s="156"/>
-      <c r="E113" s="156"/>
-      <c r="F113" s="156"/>
-      <c r="G113" s="156"/>
+      <c r="B113" s="155"/>
+      <c r="C113" s="155"/>
+      <c r="D113" s="155"/>
+      <c r="E113" s="155"/>
+      <c r="F113" s="155"/>
+      <c r="G113" s="155"/>
     </row>
     <row r="114" spans="1:7" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
@@ -36917,10 +36918,10 @@
       <c r="E114" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="F114" s="161" t="s">
+      <c r="F114" s="160" t="s">
         <v>916</v>
       </c>
-      <c r="G114" s="161" t="s">
+      <c r="G114" s="160" t="s">
         <v>492</v>
       </c>
     </row>
@@ -36940,8 +36941,8 @@
       <c r="E115" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="F115" s="161"/>
-      <c r="G115" s="161"/>
+      <c r="F115" s="160"/>
+      <c r="G115" s="160"/>
     </row>
     <row r="116" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
@@ -37151,15 +37152,15 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="156" t="s">
+      <c r="A125" s="155" t="s">
         <v>166</v>
       </c>
-      <c r="B125" s="156"/>
-      <c r="C125" s="156"/>
-      <c r="D125" s="156"/>
-      <c r="E125" s="156"/>
-      <c r="F125" s="156"/>
-      <c r="G125" s="156"/>
+      <c r="B125" s="155"/>
+      <c r="C125" s="155"/>
+      <c r="D125" s="155"/>
+      <c r="E125" s="155"/>
+      <c r="F125" s="155"/>
+      <c r="G125" s="155"/>
     </row>
     <row r="126" spans="1:7" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
@@ -37177,10 +37178,10 @@
       <c r="E126" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="F126" s="174" t="s">
+      <c r="F126" s="173" t="s">
         <v>738</v>
       </c>
-      <c r="G126" s="174" t="s">
+      <c r="G126" s="173" t="s">
         <v>733</v>
       </c>
     </row>
@@ -37200,8 +37201,8 @@
       <c r="E127" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="F127" s="175"/>
-      <c r="G127" s="175"/>
+      <c r="F127" s="174"/>
+      <c r="G127" s="174"/>
     </row>
     <row r="128" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
@@ -37273,15 +37274,15 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="156" t="s">
+      <c r="A131" s="155" t="s">
         <v>167</v>
       </c>
-      <c r="B131" s="156"/>
-      <c r="C131" s="156"/>
-      <c r="D131" s="156"/>
-      <c r="E131" s="156"/>
-      <c r="F131" s="156"/>
-      <c r="G131" s="156"/>
+      <c r="B131" s="155"/>
+      <c r="C131" s="155"/>
+      <c r="D131" s="155"/>
+      <c r="E131" s="155"/>
+      <c r="F131" s="155"/>
+      <c r="G131" s="155"/>
     </row>
     <row r="132" spans="1:7" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
@@ -37460,7 +37461,7 @@
       <c r="E139" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="F139" s="152" t="s">
+      <c r="F139" s="151" t="s">
         <v>934</v>
       </c>
       <c r="G139" s="55" t="s">
@@ -37514,15 +37515,15 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="156" t="s">
+      <c r="A142" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="B142" s="156"/>
-      <c r="C142" s="156"/>
-      <c r="D142" s="156"/>
-      <c r="E142" s="156"/>
-      <c r="F142" s="156"/>
-      <c r="G142" s="156"/>
+      <c r="B142" s="155"/>
+      <c r="C142" s="155"/>
+      <c r="D142" s="155"/>
+      <c r="E142" s="155"/>
+      <c r="F142" s="155"/>
+      <c r="G142" s="155"/>
     </row>
     <row r="143" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
@@ -37566,7 +37567,7 @@
       <c r="F144" s="55" t="s">
         <v>499</v>
       </c>
-      <c r="G144" s="164" t="s">
+      <c r="G144" s="163" t="s">
         <v>384</v>
       </c>
     </row>
@@ -37589,7 +37590,7 @@
       <c r="F145" s="55" t="s">
         <v>498</v>
       </c>
-      <c r="G145" s="164"/>
+      <c r="G145" s="163"/>
     </row>
     <row r="146" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
@@ -37745,10 +37746,10 @@
       <c r="E152" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="F152" s="174" t="s">
+      <c r="F152" s="173" t="s">
         <v>502</v>
       </c>
-      <c r="G152" s="174" t="s">
+      <c r="G152" s="173" t="s">
         <v>477</v>
       </c>
     </row>
@@ -37768,8 +37769,8 @@
       <c r="E153" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="F153" s="175"/>
-      <c r="G153" s="175"/>
+      <c r="F153" s="174"/>
+      <c r="G153" s="174"/>
     </row>
     <row r="154" spans="1:7" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
@@ -37793,15 +37794,15 @@
       <c r="G154" s="15"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="156" t="s">
+      <c r="A155" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="B155" s="156"/>
-      <c r="C155" s="156"/>
-      <c r="D155" s="156"/>
-      <c r="E155" s="156"/>
-      <c r="F155" s="156"/>
-      <c r="G155" s="156"/>
+      <c r="B155" s="155"/>
+      <c r="C155" s="155"/>
+      <c r="D155" s="155"/>
+      <c r="E155" s="155"/>
+      <c r="F155" s="155"/>
+      <c r="G155" s="155"/>
     </row>
     <row r="156" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
@@ -38149,7 +38150,7 @@
       <c r="E1" s="120" t="s">
         <v>729</v>
       </c>
-      <c r="F1" s="148" t="s">
+      <c r="F1" s="147" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -38157,15 +38158,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
     </row>
     <row r="3" spans="1:7" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -38329,15 +38330,15 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="156" t="s">
+      <c r="A10" s="155" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
     </row>
     <row r="11" spans="1:7" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -38355,10 +38356,10 @@
       <c r="E11" s="121" t="s">
         <v>380</v>
       </c>
-      <c r="F11" s="166" t="s">
+      <c r="F11" s="165" t="s">
         <v>827</v>
       </c>
-      <c r="G11" s="164" t="s">
+      <c r="G11" s="163" t="s">
         <v>527</v>
       </c>
     </row>
@@ -38378,8 +38379,8 @@
       <c r="E12" s="121" t="s">
         <v>380</v>
       </c>
-      <c r="F12" s="167"/>
-      <c r="G12" s="164"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="163"/>
     </row>
     <row r="13" spans="1:7" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -38520,15 +38521,15 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="156" t="s">
+      <c r="A19" s="155" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="156"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
     </row>
     <row r="20" spans="1:7" ht="172.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -38546,10 +38547,10 @@
       <c r="E20" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="F20" s="161" t="s">
+      <c r="F20" s="160" t="s">
         <v>842</v>
       </c>
-      <c r="G20" s="161" t="s">
+      <c r="G20" s="160" t="s">
         <v>528</v>
       </c>
     </row>
@@ -38569,8 +38570,8 @@
       <c r="E21" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
     </row>
     <row r="22" spans="1:7" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -38826,15 +38827,15 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="156" t="s">
+      <c r="A33" s="155" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="156"/>
-      <c r="C33" s="156"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="155"/>
     </row>
     <row r="34" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
@@ -38990,7 +38991,7 @@
       <c r="E40" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="F40" s="152" t="s">
+      <c r="F40" s="151" t="s">
         <v>534</v>
       </c>
       <c r="G40" s="116" t="s">
@@ -39067,15 +39068,15 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="156" t="s">
+      <c r="A44" s="155" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="156"/>
-      <c r="C44" s="156"/>
-      <c r="D44" s="156"/>
-      <c r="E44" s="156"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="156"/>
+      <c r="B44" s="155"/>
+      <c r="C44" s="155"/>
+      <c r="D44" s="155"/>
+      <c r="E44" s="155"/>
+      <c r="F44" s="155"/>
+      <c r="G44" s="155"/>
     </row>
     <row r="45" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
@@ -39285,15 +39286,15 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="156" t="s">
+      <c r="A54" s="155" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="156"/>
-      <c r="C54" s="156"/>
-      <c r="D54" s="156"/>
-      <c r="E54" s="156"/>
-      <c r="F54" s="156"/>
-      <c r="G54" s="156"/>
+      <c r="B54" s="155"/>
+      <c r="C54" s="155"/>
+      <c r="D54" s="155"/>
+      <c r="E54" s="155"/>
+      <c r="F54" s="155"/>
+      <c r="G54" s="155"/>
     </row>
     <row r="55" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
@@ -39480,15 +39481,15 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="156" t="s">
+      <c r="A63" s="155" t="s">
         <v>160</v>
       </c>
-      <c r="B63" s="156"/>
-      <c r="C63" s="156"/>
-      <c r="D63" s="156"/>
-      <c r="E63" s="156"/>
-      <c r="F63" s="156"/>
-      <c r="G63" s="156"/>
+      <c r="B63" s="155"/>
+      <c r="C63" s="155"/>
+      <c r="D63" s="155"/>
+      <c r="E63" s="155"/>
+      <c r="F63" s="155"/>
+      <c r="G63" s="155"/>
     </row>
     <row r="64" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
@@ -39606,15 +39607,15 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="156" t="s">
+      <c r="A69" s="155" t="s">
         <v>161</v>
       </c>
-      <c r="B69" s="156"/>
-      <c r="C69" s="156"/>
-      <c r="D69" s="156"/>
-      <c r="E69" s="156"/>
-      <c r="F69" s="156"/>
-      <c r="G69" s="156"/>
+      <c r="B69" s="155"/>
+      <c r="C69" s="155"/>
+      <c r="D69" s="155"/>
+      <c r="E69" s="155"/>
+      <c r="F69" s="155"/>
+      <c r="G69" s="155"/>
     </row>
     <row r="70" spans="1:7" ht="216" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
@@ -39632,10 +39633,10 @@
       <c r="E70" s="121" t="s">
         <v>380</v>
       </c>
-      <c r="F70" s="166" t="s">
+      <c r="F70" s="165" t="s">
         <v>877</v>
       </c>
-      <c r="G70" s="166" t="s">
+      <c r="G70" s="165" t="s">
         <v>767</v>
       </c>
     </row>
@@ -39655,8 +39656,8 @@
       <c r="E71" s="121" t="s">
         <v>380</v>
       </c>
-      <c r="F71" s="167"/>
-      <c r="G71" s="167"/>
+      <c r="F71" s="166"/>
+      <c r="G71" s="166"/>
     </row>
     <row r="72" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
@@ -39720,10 +39721,10 @@
       <c r="E74" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="F74" s="162" t="s">
+      <c r="F74" s="161" t="s">
         <v>879</v>
       </c>
-      <c r="G74" s="162" t="s">
+      <c r="G74" s="161" t="s">
         <v>880</v>
       </c>
     </row>
@@ -39743,8 +39744,8 @@
       <c r="E75" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="F75" s="163"/>
-      <c r="G75" s="163"/>
+      <c r="F75" s="162"/>
+      <c r="G75" s="162"/>
     </row>
     <row r="76" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
@@ -39885,15 +39886,15 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="156" t="s">
+      <c r="A82" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="156"/>
-      <c r="C82" s="156"/>
-      <c r="D82" s="156"/>
-      <c r="E82" s="156"/>
-      <c r="F82" s="156"/>
-      <c r="G82" s="156"/>
+      <c r="B82" s="155"/>
+      <c r="C82" s="155"/>
+      <c r="D82" s="155"/>
+      <c r="E82" s="155"/>
+      <c r="F82" s="155"/>
+      <c r="G82" s="155"/>
     </row>
     <row r="83" spans="1:7" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
@@ -40080,15 +40081,15 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="156" t="s">
+      <c r="A91" s="155" t="s">
         <v>163</v>
       </c>
-      <c r="B91" s="156"/>
-      <c r="C91" s="156"/>
-      <c r="D91" s="156"/>
-      <c r="E91" s="156"/>
-      <c r="F91" s="156"/>
-      <c r="G91" s="156"/>
+      <c r="B91" s="155"/>
+      <c r="C91" s="155"/>
+      <c r="D91" s="155"/>
+      <c r="E91" s="155"/>
+      <c r="F91" s="155"/>
+      <c r="G91" s="155"/>
     </row>
     <row r="92" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
@@ -40321,15 +40322,15 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="156" t="s">
+      <c r="A102" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="B102" s="156"/>
-      <c r="C102" s="156"/>
-      <c r="D102" s="156"/>
-      <c r="E102" s="156"/>
-      <c r="F102" s="156"/>
-      <c r="G102" s="156"/>
+      <c r="B102" s="155"/>
+      <c r="C102" s="155"/>
+      <c r="D102" s="155"/>
+      <c r="E102" s="155"/>
+      <c r="F102" s="155"/>
+      <c r="G102" s="155"/>
     </row>
     <row r="103" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
@@ -40562,15 +40563,15 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="156" t="s">
+      <c r="A113" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="B113" s="156"/>
-      <c r="C113" s="156"/>
-      <c r="D113" s="156"/>
-      <c r="E113" s="156"/>
-      <c r="F113" s="156"/>
-      <c r="G113" s="156"/>
+      <c r="B113" s="155"/>
+      <c r="C113" s="155"/>
+      <c r="D113" s="155"/>
+      <c r="E113" s="155"/>
+      <c r="F113" s="155"/>
+      <c r="G113" s="155"/>
     </row>
     <row r="114" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
@@ -40588,10 +40589,10 @@
       <c r="E114" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="F114" s="161" t="s">
+      <c r="F114" s="160" t="s">
         <v>543</v>
       </c>
-      <c r="G114" s="162" t="s">
+      <c r="G114" s="161" t="s">
         <v>537</v>
       </c>
     </row>
@@ -40611,8 +40612,8 @@
       <c r="E115" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="F115" s="161"/>
-      <c r="G115" s="163"/>
+      <c r="F115" s="160"/>
+      <c r="G115" s="162"/>
     </row>
     <row r="116" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
@@ -40822,15 +40823,15 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="156" t="s">
+      <c r="A125" s="155" t="s">
         <v>166</v>
       </c>
-      <c r="B125" s="156"/>
-      <c r="C125" s="156"/>
-      <c r="D125" s="156"/>
-      <c r="E125" s="156"/>
-      <c r="F125" s="156"/>
-      <c r="G125" s="156"/>
+      <c r="B125" s="155"/>
+      <c r="C125" s="155"/>
+      <c r="D125" s="155"/>
+      <c r="E125" s="155"/>
+      <c r="F125" s="155"/>
+      <c r="G125" s="155"/>
     </row>
     <row r="126" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
@@ -40848,10 +40849,10 @@
       <c r="E126" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="F126" s="174" t="s">
+      <c r="F126" s="173" t="s">
         <v>739</v>
       </c>
-      <c r="G126" s="174" t="s">
+      <c r="G126" s="173" t="s">
         <v>740</v>
       </c>
     </row>
@@ -40871,8 +40872,8 @@
       <c r="E127" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="F127" s="175"/>
-      <c r="G127" s="175"/>
+      <c r="F127" s="174"/>
+      <c r="G127" s="174"/>
     </row>
     <row r="128" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
@@ -40890,7 +40891,7 @@
       <c r="E128" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="F128" s="152" t="s">
+      <c r="F128" s="151" t="s">
         <v>544</v>
       </c>
       <c r="G128" s="105"/>
@@ -40942,15 +40943,15 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="156" t="s">
+      <c r="A131" s="155" t="s">
         <v>167</v>
       </c>
-      <c r="B131" s="156"/>
-      <c r="C131" s="156"/>
-      <c r="D131" s="156"/>
-      <c r="E131" s="156"/>
-      <c r="F131" s="156"/>
-      <c r="G131" s="156"/>
+      <c r="B131" s="155"/>
+      <c r="C131" s="155"/>
+      <c r="D131" s="155"/>
+      <c r="E131" s="155"/>
+      <c r="F131" s="155"/>
+      <c r="G131" s="155"/>
     </row>
     <row r="132" spans="1:7" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
@@ -41127,7 +41128,7 @@
       <c r="E139" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="F139" s="152" t="s">
+      <c r="F139" s="151" t="s">
         <v>933</v>
       </c>
       <c r="G139" s="62" t="s">
@@ -41181,15 +41182,15 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="156" t="s">
+      <c r="A142" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="B142" s="156"/>
-      <c r="C142" s="156"/>
-      <c r="D142" s="156"/>
-      <c r="E142" s="156"/>
-      <c r="F142" s="156"/>
-      <c r="G142" s="156"/>
+      <c r="B142" s="155"/>
+      <c r="C142" s="155"/>
+      <c r="D142" s="155"/>
+      <c r="E142" s="155"/>
+      <c r="F142" s="155"/>
+      <c r="G142" s="155"/>
     </row>
     <row r="143" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
@@ -41414,10 +41415,10 @@
       <c r="E152" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="F152" s="174" t="s">
+      <c r="F152" s="173" t="s">
         <v>556</v>
       </c>
-      <c r="G152" s="174" t="s">
+      <c r="G152" s="173" t="s">
         <v>477</v>
       </c>
     </row>
@@ -41437,8 +41438,8 @@
       <c r="E153" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="F153" s="175"/>
-      <c r="G153" s="175"/>
+      <c r="F153" s="174"/>
+      <c r="G153" s="174"/>
     </row>
     <row r="154" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
@@ -41464,15 +41465,15 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="156" t="s">
+      <c r="A155" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="B155" s="156"/>
-      <c r="C155" s="156"/>
-      <c r="D155" s="156"/>
-      <c r="E155" s="156"/>
-      <c r="F155" s="156"/>
-      <c r="G155" s="156"/>
+      <c r="B155" s="155"/>
+      <c r="C155" s="155"/>
+      <c r="D155" s="155"/>
+      <c r="E155" s="155"/>
+      <c r="F155" s="155"/>
+      <c r="G155" s="155"/>
     </row>
     <row r="156" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
@@ -41792,7 +41793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71889C4-9CE3-4ABF-B303-D49E671022BA}">
   <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
@@ -41828,15 +41829,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
     </row>
     <row r="3" spans="1:7" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -41854,10 +41855,10 @@
       <c r="E3" s="130" t="s">
         <v>380</v>
       </c>
-      <c r="F3" s="164" t="s">
+      <c r="F3" s="163" t="s">
         <v>804</v>
       </c>
-      <c r="G3" s="166" t="s">
+      <c r="G3" s="165" t="s">
         <v>588</v>
       </c>
     </row>
@@ -41877,8 +41878,8 @@
       <c r="E4" s="130" t="s">
         <v>380</v>
       </c>
-      <c r="F4" s="164"/>
-      <c r="G4" s="167"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="166"/>
     </row>
     <row r="5" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -41996,15 +41997,15 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="156" t="s">
+      <c r="A10" s="155" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
     </row>
     <row r="11" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -42022,10 +42023,10 @@
       <c r="E11" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F11" s="166" t="s">
+      <c r="F11" s="165" t="s">
         <v>769</v>
       </c>
-      <c r="G11" s="166" t="s">
+      <c r="G11" s="165" t="s">
         <v>583</v>
       </c>
     </row>
@@ -42045,8 +42046,8 @@
       <c r="E12" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F12" s="172"/>
-      <c r="G12" s="172"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="171"/>
     </row>
     <row r="13" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -42064,8 +42065,8 @@
       <c r="E13" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="166"/>
     </row>
     <row r="14" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -42183,15 +42184,15 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="156" t="s">
+      <c r="A19" s="155" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="156"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
     </row>
     <row r="20" spans="1:7" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -42209,10 +42210,10 @@
       <c r="E20" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F20" s="164" t="s">
+      <c r="F20" s="163" t="s">
         <v>586</v>
       </c>
-      <c r="G20" s="166" t="s">
+      <c r="G20" s="165" t="s">
         <v>585</v>
       </c>
     </row>
@@ -42232,8 +42233,8 @@
       <c r="E21" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F21" s="164"/>
-      <c r="G21" s="167"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="166"/>
     </row>
     <row r="22" spans="1:7" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -42489,15 +42490,15 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="156" t="s">
+      <c r="A33" s="155" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="156"/>
-      <c r="C33" s="156"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="155"/>
     </row>
     <row r="34" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
@@ -42653,7 +42654,7 @@
       <c r="E40" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F40" s="152" t="s">
+      <c r="F40" s="151" t="s">
         <v>328</v>
       </c>
       <c r="G40" s="116" t="s">
@@ -42730,15 +42731,15 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="156" t="s">
+      <c r="A44" s="155" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="156"/>
-      <c r="C44" s="156"/>
-      <c r="D44" s="156"/>
-      <c r="E44" s="156"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="156"/>
+      <c r="B44" s="155"/>
+      <c r="C44" s="155"/>
+      <c r="D44" s="155"/>
+      <c r="E44" s="155"/>
+      <c r="F44" s="155"/>
+      <c r="G44" s="155"/>
     </row>
     <row r="45" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
@@ -42948,15 +42949,15 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="156" t="s">
+      <c r="A54" s="155" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="156"/>
-      <c r="C54" s="156"/>
-      <c r="D54" s="156"/>
-      <c r="E54" s="156"/>
-      <c r="F54" s="156"/>
-      <c r="G54" s="156"/>
+      <c r="B54" s="155"/>
+      <c r="C54" s="155"/>
+      <c r="D54" s="155"/>
+      <c r="E54" s="155"/>
+      <c r="F54" s="155"/>
+      <c r="G54" s="155"/>
     </row>
     <row r="55" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
@@ -43143,15 +43144,15 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="156" t="s">
+      <c r="A63" s="155" t="s">
         <v>160</v>
       </c>
-      <c r="B63" s="156"/>
-      <c r="C63" s="156"/>
-      <c r="D63" s="156"/>
-      <c r="E63" s="156"/>
-      <c r="F63" s="156"/>
-      <c r="G63" s="156"/>
+      <c r="B63" s="155"/>
+      <c r="C63" s="155"/>
+      <c r="D63" s="155"/>
+      <c r="E63" s="155"/>
+      <c r="F63" s="155"/>
+      <c r="G63" s="155"/>
     </row>
     <row r="64" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
@@ -43169,10 +43170,10 @@
       <c r="E64" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F64" s="166" t="s">
+      <c r="F64" s="165" t="s">
         <v>590</v>
       </c>
-      <c r="G64" s="166" t="s">
+      <c r="G64" s="165" t="s">
         <v>589</v>
       </c>
     </row>
@@ -43192,8 +43193,8 @@
       <c r="E65" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F65" s="167"/>
-      <c r="G65" s="167"/>
+      <c r="F65" s="166"/>
+      <c r="G65" s="166"/>
     </row>
     <row r="66" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
@@ -43265,15 +43266,15 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="156" t="s">
+      <c r="A69" s="155" t="s">
         <v>161</v>
       </c>
-      <c r="B69" s="156"/>
-      <c r="C69" s="156"/>
-      <c r="D69" s="156"/>
-      <c r="E69" s="156"/>
-      <c r="F69" s="156"/>
-      <c r="G69" s="156"/>
+      <c r="B69" s="155"/>
+      <c r="C69" s="155"/>
+      <c r="D69" s="155"/>
+      <c r="E69" s="155"/>
+      <c r="F69" s="155"/>
+      <c r="G69" s="155"/>
     </row>
     <row r="70" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
@@ -43291,10 +43292,10 @@
       <c r="E70" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F70" s="164" t="s">
+      <c r="F70" s="163" t="s">
         <v>592</v>
       </c>
-      <c r="G70" s="166" t="s">
+      <c r="G70" s="165" t="s">
         <v>591</v>
       </c>
     </row>
@@ -43314,8 +43315,8 @@
       <c r="E71" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F71" s="164"/>
-      <c r="G71" s="167"/>
+      <c r="F71" s="163"/>
+      <c r="G71" s="166"/>
     </row>
     <row r="72" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
@@ -43379,10 +43380,10 @@
       <c r="E74" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F74" s="166" t="s">
+      <c r="F74" s="165" t="s">
         <v>881</v>
       </c>
-      <c r="G74" s="172" t="s">
+      <c r="G74" s="171" t="s">
         <v>569</v>
       </c>
     </row>
@@ -43402,8 +43403,8 @@
       <c r="E75" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F75" s="167"/>
-      <c r="G75" s="167"/>
+      <c r="F75" s="166"/>
+      <c r="G75" s="166"/>
     </row>
     <row r="76" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
@@ -43544,15 +43545,15 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="156" t="s">
+      <c r="A82" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="156"/>
-      <c r="C82" s="156"/>
-      <c r="D82" s="156"/>
-      <c r="E82" s="156"/>
-      <c r="F82" s="156"/>
-      <c r="G82" s="156"/>
+      <c r="B82" s="155"/>
+      <c r="C82" s="155"/>
+      <c r="D82" s="155"/>
+      <c r="E82" s="155"/>
+      <c r="F82" s="155"/>
+      <c r="G82" s="155"/>
     </row>
     <row r="83" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
@@ -43739,15 +43740,15 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="156" t="s">
+      <c r="A91" s="155" t="s">
         <v>163</v>
       </c>
-      <c r="B91" s="156"/>
-      <c r="C91" s="156"/>
-      <c r="D91" s="156"/>
-      <c r="E91" s="156"/>
-      <c r="F91" s="156"/>
-      <c r="G91" s="156"/>
+      <c r="B91" s="155"/>
+      <c r="C91" s="155"/>
+      <c r="D91" s="155"/>
+      <c r="E91" s="155"/>
+      <c r="F91" s="155"/>
+      <c r="G91" s="155"/>
     </row>
     <row r="92" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
@@ -43980,15 +43981,15 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="156" t="s">
+      <c r="A102" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="B102" s="156"/>
-      <c r="C102" s="156"/>
-      <c r="D102" s="156"/>
-      <c r="E102" s="156"/>
-      <c r="F102" s="156"/>
-      <c r="G102" s="156"/>
+      <c r="B102" s="155"/>
+      <c r="C102" s="155"/>
+      <c r="D102" s="155"/>
+      <c r="E102" s="155"/>
+      <c r="F102" s="155"/>
+      <c r="G102" s="155"/>
     </row>
     <row r="103" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
@@ -44221,15 +44222,15 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="156" t="s">
+      <c r="A113" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="B113" s="156"/>
-      <c r="C113" s="156"/>
-      <c r="D113" s="156"/>
-      <c r="E113" s="156"/>
-      <c r="F113" s="156"/>
-      <c r="G113" s="156"/>
+      <c r="B113" s="155"/>
+      <c r="C113" s="155"/>
+      <c r="D113" s="155"/>
+      <c r="E113" s="155"/>
+      <c r="F113" s="155"/>
+      <c r="G113" s="155"/>
     </row>
     <row r="114" spans="1:7" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
@@ -44247,10 +44248,10 @@
       <c r="E114" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F114" s="166" t="s">
+      <c r="F114" s="165" t="s">
         <v>598</v>
       </c>
-      <c r="G114" s="166" t="s">
+      <c r="G114" s="165" t="s">
         <v>599</v>
       </c>
     </row>
@@ -44270,8 +44271,8 @@
       <c r="E115" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F115" s="167"/>
-      <c r="G115" s="167"/>
+      <c r="F115" s="166"/>
+      <c r="G115" s="166"/>
     </row>
     <row r="116" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
@@ -44404,7 +44405,7 @@
       <c r="E121" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F121" s="152" t="s">
+      <c r="F121" s="151" t="s">
         <v>544</v>
       </c>
       <c r="G121" s="116" t="s">
@@ -44481,15 +44482,15 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="156" t="s">
+      <c r="A125" s="155" t="s">
         <v>166</v>
       </c>
-      <c r="B125" s="156"/>
-      <c r="C125" s="156"/>
-      <c r="D125" s="156"/>
-      <c r="E125" s="156"/>
-      <c r="F125" s="156"/>
-      <c r="G125" s="156"/>
+      <c r="B125" s="155"/>
+      <c r="C125" s="155"/>
+      <c r="D125" s="155"/>
+      <c r="E125" s="155"/>
+      <c r="F125" s="155"/>
+      <c r="G125" s="155"/>
     </row>
     <row r="126" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
@@ -44507,10 +44508,10 @@
       <c r="E126" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F126" s="174" t="s">
+      <c r="F126" s="173" t="s">
         <v>743</v>
       </c>
-      <c r="G126" s="174" t="s">
+      <c r="G126" s="173" t="s">
         <v>744</v>
       </c>
     </row>
@@ -44530,8 +44531,8 @@
       <c r="E127" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F127" s="175"/>
-      <c r="G127" s="175"/>
+      <c r="F127" s="174"/>
+      <c r="G127" s="174"/>
     </row>
     <row r="128" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
@@ -44549,7 +44550,7 @@
       <c r="E128" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F128" s="152" t="s">
+      <c r="F128" s="151" t="s">
         <v>544</v>
       </c>
       <c r="G128" s="105"/>
@@ -44601,15 +44602,15 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="156" t="s">
+      <c r="A131" s="155" t="s">
         <v>167</v>
       </c>
-      <c r="B131" s="156"/>
-      <c r="C131" s="156"/>
-      <c r="D131" s="156"/>
-      <c r="E131" s="156"/>
-      <c r="F131" s="156"/>
-      <c r="G131" s="156"/>
+      <c r="B131" s="155"/>
+      <c r="C131" s="155"/>
+      <c r="D131" s="155"/>
+      <c r="E131" s="155"/>
+      <c r="F131" s="155"/>
+      <c r="G131" s="155"/>
     </row>
     <row r="132" spans="1:7" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
@@ -44842,15 +44843,15 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="156" t="s">
+      <c r="A142" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="B142" s="156"/>
-      <c r="C142" s="156"/>
-      <c r="D142" s="156"/>
-      <c r="E142" s="156"/>
-      <c r="F142" s="156"/>
-      <c r="G142" s="156"/>
+      <c r="B142" s="155"/>
+      <c r="C142" s="155"/>
+      <c r="D142" s="155"/>
+      <c r="E142" s="155"/>
+      <c r="F142" s="155"/>
+      <c r="G142" s="155"/>
     </row>
     <row r="143" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
@@ -45129,15 +45130,15 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="156" t="s">
+      <c r="A155" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="B155" s="156"/>
-      <c r="C155" s="156"/>
-      <c r="D155" s="156"/>
-      <c r="E155" s="156"/>
-      <c r="F155" s="156"/>
-      <c r="G155" s="156"/>
+      <c r="B155" s="155"/>
+      <c r="C155" s="155"/>
+      <c r="D155" s="155"/>
+      <c r="E155" s="155"/>
+      <c r="F155" s="155"/>
+      <c r="G155" s="155"/>
     </row>
     <row r="156" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
@@ -45487,7 +45488,7 @@
       <c r="E1" s="25" t="s">
         <v>729</v>
       </c>
-      <c r="F1" s="148" t="s">
+      <c r="F1" s="147" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -45495,15 +45496,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
     </row>
     <row r="3" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -45521,10 +45522,10 @@
       <c r="E3" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F3" s="166" t="s">
+      <c r="F3" s="165" t="s">
         <v>809</v>
       </c>
-      <c r="G3" s="166" t="s">
+      <c r="G3" s="165" t="s">
         <v>637</v>
       </c>
     </row>
@@ -45544,8 +45545,8 @@
       <c r="E4" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
     </row>
     <row r="5" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -45663,15 +45664,15 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="156" t="s">
+      <c r="A10" s="155" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
     </row>
     <row r="11" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -45689,10 +45690,10 @@
       <c r="E11" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F11" s="166" t="s">
+      <c r="F11" s="165" t="s">
         <v>833</v>
       </c>
-      <c r="G11" s="166" t="s">
+      <c r="G11" s="165" t="s">
         <v>642</v>
       </c>
     </row>
@@ -45712,8 +45713,8 @@
       <c r="E12" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F12" s="172"/>
-      <c r="G12" s="172"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="171"/>
     </row>
     <row r="13" spans="1:7" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -45731,8 +45732,8 @@
       <c r="E13" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F13" s="172"/>
-      <c r="G13" s="172"/>
+      <c r="F13" s="171"/>
+      <c r="G13" s="171"/>
     </row>
     <row r="14" spans="1:7" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -45750,8 +45751,8 @@
       <c r="E14" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="166"/>
     </row>
     <row r="15" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -45846,15 +45847,15 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="156" t="s">
+      <c r="A19" s="155" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="156"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
     </row>
     <row r="20" spans="1:7" ht="148.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -45872,10 +45873,10 @@
       <c r="E20" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F20" s="166" t="s">
+      <c r="F20" s="165" t="s">
         <v>643</v>
       </c>
-      <c r="G20" s="166" t="s">
+      <c r="G20" s="165" t="s">
         <v>644</v>
       </c>
     </row>
@@ -45895,8 +45896,8 @@
       <c r="E21" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F21" s="167"/>
-      <c r="G21" s="167"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="166"/>
     </row>
     <row r="22" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -46152,15 +46153,15 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="156" t="s">
+      <c r="A33" s="155" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="156"/>
-      <c r="C33" s="156"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="155"/>
     </row>
     <row r="34" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
@@ -46316,7 +46317,7 @@
       <c r="E40" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F40" s="152" t="s">
+      <c r="F40" s="151" t="s">
         <v>534</v>
       </c>
       <c r="G40" s="116" t="s">
@@ -46393,15 +46394,15 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="156" t="s">
+      <c r="A44" s="155" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="156"/>
-      <c r="C44" s="156"/>
-      <c r="D44" s="156"/>
-      <c r="E44" s="156"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="156"/>
+      <c r="B44" s="155"/>
+      <c r="C44" s="155"/>
+      <c r="D44" s="155"/>
+      <c r="E44" s="155"/>
+      <c r="F44" s="155"/>
+      <c r="G44" s="155"/>
     </row>
     <row r="45" spans="1:7" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
@@ -46611,15 +46612,15 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="156" t="s">
+      <c r="A54" s="155" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="156"/>
-      <c r="C54" s="156"/>
-      <c r="D54" s="156"/>
-      <c r="E54" s="156"/>
-      <c r="F54" s="156"/>
-      <c r="G54" s="156"/>
+      <c r="B54" s="155"/>
+      <c r="C54" s="155"/>
+      <c r="D54" s="155"/>
+      <c r="E54" s="155"/>
+      <c r="F54" s="155"/>
+      <c r="G54" s="155"/>
     </row>
     <row r="55" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
@@ -46806,15 +46807,15 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="156" t="s">
+      <c r="A63" s="155" t="s">
         <v>160</v>
       </c>
-      <c r="B63" s="156"/>
-      <c r="C63" s="156"/>
-      <c r="D63" s="156"/>
-      <c r="E63" s="156"/>
-      <c r="F63" s="156"/>
-      <c r="G63" s="156"/>
+      <c r="B63" s="155"/>
+      <c r="C63" s="155"/>
+      <c r="D63" s="155"/>
+      <c r="E63" s="155"/>
+      <c r="F63" s="155"/>
+      <c r="G63" s="155"/>
     </row>
     <row r="64" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
@@ -46932,15 +46933,15 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="156" t="s">
+      <c r="A69" s="155" t="s">
         <v>161</v>
       </c>
-      <c r="B69" s="156"/>
-      <c r="C69" s="156"/>
-      <c r="D69" s="156"/>
-      <c r="E69" s="156"/>
-      <c r="F69" s="156"/>
-      <c r="G69" s="156"/>
+      <c r="B69" s="155"/>
+      <c r="C69" s="155"/>
+      <c r="D69" s="155"/>
+      <c r="E69" s="155"/>
+      <c r="F69" s="155"/>
+      <c r="G69" s="155"/>
     </row>
     <row r="70" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
@@ -46958,10 +46959,10 @@
       <c r="E70" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F70" s="166" t="s">
+      <c r="F70" s="165" t="s">
         <v>647</v>
       </c>
-      <c r="G70" s="166" t="s">
+      <c r="G70" s="165" t="s">
         <v>646</v>
       </c>
     </row>
@@ -46981,8 +46982,8 @@
       <c r="E71" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F71" s="167"/>
-      <c r="G71" s="167"/>
+      <c r="F71" s="166"/>
+      <c r="G71" s="166"/>
     </row>
     <row r="72" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
@@ -47046,10 +47047,10 @@
       <c r="E74" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F74" s="161" t="s">
+      <c r="F74" s="160" t="s">
         <v>886</v>
       </c>
-      <c r="G74" s="161" t="s">
+      <c r="G74" s="160" t="s">
         <v>886</v>
       </c>
     </row>
@@ -47069,8 +47070,8 @@
       <c r="E75" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F75" s="161"/>
-      <c r="G75" s="161"/>
+      <c r="F75" s="160"/>
+      <c r="G75" s="160"/>
     </row>
     <row r="76" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
@@ -47211,15 +47212,15 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="156" t="s">
+      <c r="A82" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="156"/>
-      <c r="C82" s="156"/>
-      <c r="D82" s="156"/>
-      <c r="E82" s="156"/>
-      <c r="F82" s="156"/>
-      <c r="G82" s="156"/>
+      <c r="B82" s="155"/>
+      <c r="C82" s="155"/>
+      <c r="D82" s="155"/>
+      <c r="E82" s="155"/>
+      <c r="F82" s="155"/>
+      <c r="G82" s="155"/>
     </row>
     <row r="83" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
@@ -47329,7 +47330,7 @@
       <c r="E87" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F87" s="152" t="s">
+      <c r="F87" s="151" t="s">
         <v>650</v>
       </c>
       <c r="G87" s="80" t="s">
@@ -47406,15 +47407,15 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="156" t="s">
+      <c r="A91" s="155" t="s">
         <v>163</v>
       </c>
-      <c r="B91" s="156"/>
-      <c r="C91" s="156"/>
-      <c r="D91" s="156"/>
-      <c r="E91" s="156"/>
-      <c r="F91" s="156"/>
-      <c r="G91" s="156"/>
+      <c r="B91" s="155"/>
+      <c r="C91" s="155"/>
+      <c r="D91" s="155"/>
+      <c r="E91" s="155"/>
+      <c r="F91" s="155"/>
+      <c r="G91" s="155"/>
     </row>
     <row r="92" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
@@ -47455,10 +47456,10 @@
       <c r="E93" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F93" s="166" t="s">
+      <c r="F93" s="165" t="s">
         <v>777</v>
       </c>
-      <c r="G93" s="166" t="s">
+      <c r="G93" s="165" t="s">
         <v>778</v>
       </c>
     </row>
@@ -47478,8 +47479,8 @@
       <c r="E94" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F94" s="167"/>
-      <c r="G94" s="167"/>
+      <c r="F94" s="166"/>
+      <c r="G94" s="166"/>
     </row>
     <row r="95" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
@@ -47643,15 +47644,15 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="156" t="s">
+      <c r="A102" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="B102" s="156"/>
-      <c r="C102" s="156"/>
-      <c r="D102" s="156"/>
-      <c r="E102" s="156"/>
-      <c r="F102" s="156"/>
-      <c r="G102" s="156"/>
+      <c r="B102" s="155"/>
+      <c r="C102" s="155"/>
+      <c r="D102" s="155"/>
+      <c r="E102" s="155"/>
+      <c r="F102" s="155"/>
+      <c r="G102" s="155"/>
     </row>
     <row r="103" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
@@ -47884,15 +47885,15 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="156" t="s">
+      <c r="A113" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="B113" s="156"/>
-      <c r="C113" s="156"/>
-      <c r="D113" s="156"/>
-      <c r="E113" s="156"/>
-      <c r="F113" s="156"/>
-      <c r="G113" s="156"/>
+      <c r="B113" s="155"/>
+      <c r="C113" s="155"/>
+      <c r="D113" s="155"/>
+      <c r="E113" s="155"/>
+      <c r="F113" s="155"/>
+      <c r="G113" s="155"/>
     </row>
     <row r="114" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
@@ -47910,10 +47911,10 @@
       <c r="E114" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F114" s="164" t="s">
+      <c r="F114" s="163" t="s">
         <v>919</v>
       </c>
-      <c r="G114" s="166" t="s">
+      <c r="G114" s="165" t="s">
         <v>656</v>
       </c>
     </row>
@@ -47933,8 +47934,8 @@
       <c r="E115" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F115" s="164"/>
-      <c r="G115" s="167"/>
+      <c r="F115" s="163"/>
+      <c r="G115" s="166"/>
     </row>
     <row r="116" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
@@ -48067,7 +48068,7 @@
       <c r="E121" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F121" s="152" t="s">
+      <c r="F121" s="151" t="s">
         <v>544</v>
       </c>
       <c r="G121" s="116" t="s">
@@ -48144,15 +48145,15 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="156" t="s">
+      <c r="A125" s="155" t="s">
         <v>166</v>
       </c>
-      <c r="B125" s="156"/>
-      <c r="C125" s="156"/>
-      <c r="D125" s="156"/>
-      <c r="E125" s="156"/>
-      <c r="F125" s="156"/>
-      <c r="G125" s="156"/>
+      <c r="B125" s="155"/>
+      <c r="C125" s="155"/>
+      <c r="D125" s="155"/>
+      <c r="E125" s="155"/>
+      <c r="F125" s="155"/>
+      <c r="G125" s="155"/>
     </row>
     <row r="126" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
@@ -48170,10 +48171,10 @@
       <c r="E126" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F126" s="174" t="s">
+      <c r="F126" s="173" t="s">
         <v>742</v>
       </c>
-      <c r="G126" s="174" t="s">
+      <c r="G126" s="173" t="s">
         <v>741</v>
       </c>
     </row>
@@ -48193,8 +48194,8 @@
       <c r="E127" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F127" s="175"/>
-      <c r="G127" s="175"/>
+      <c r="F127" s="174"/>
+      <c r="G127" s="174"/>
     </row>
     <row r="128" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
@@ -48212,7 +48213,7 @@
       <c r="E128" s="131" t="s">
         <v>379</v>
       </c>
-      <c r="F128" s="152" t="s">
+      <c r="F128" s="151" t="s">
         <v>544</v>
       </c>
       <c r="G128" s="105"/>
@@ -48264,15 +48265,15 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="156" t="s">
+      <c r="A131" s="155" t="s">
         <v>167</v>
       </c>
-      <c r="B131" s="156"/>
-      <c r="C131" s="156"/>
-      <c r="D131" s="156"/>
-      <c r="E131" s="156"/>
-      <c r="F131" s="156"/>
-      <c r="G131" s="156"/>
+      <c r="B131" s="155"/>
+      <c r="C131" s="155"/>
+      <c r="D131" s="155"/>
+      <c r="E131" s="155"/>
+      <c r="F131" s="155"/>
+      <c r="G131" s="155"/>
     </row>
     <row r="132" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
@@ -48503,15 +48504,15 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="156" t="s">
+      <c r="A142" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="B142" s="156"/>
-      <c r="C142" s="156"/>
-      <c r="D142" s="156"/>
-      <c r="E142" s="156"/>
-      <c r="F142" s="156"/>
-      <c r="G142" s="156"/>
+      <c r="B142" s="155"/>
+      <c r="C142" s="155"/>
+      <c r="D142" s="155"/>
+      <c r="E142" s="155"/>
+      <c r="F142" s="155"/>
+      <c r="G142" s="155"/>
     </row>
     <row r="143" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
@@ -48790,15 +48791,15 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="156" t="s">
+      <c r="A155" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="B155" s="156"/>
-      <c r="C155" s="156"/>
-      <c r="D155" s="156"/>
-      <c r="E155" s="156"/>
-      <c r="F155" s="156"/>
-      <c r="G155" s="156"/>
+      <c r="B155" s="155"/>
+      <c r="C155" s="155"/>
+      <c r="D155" s="155"/>
+      <c r="E155" s="155"/>
+      <c r="F155" s="155"/>
+      <c r="G155" s="155"/>
     </row>
     <row r="156" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
